--- a/final_df 02-08-2022.xlsx
+++ b/final_df 02-08-2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="763">
   <si>
     <t>Player ID</t>
   </si>
@@ -2288,120 +2288,6 @@
   </si>
   <si>
     <t>Goalkeeper</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>a</t>
@@ -2906,8 +2792,8 @@
       <c r="O2">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
-        <v>758</v>
+      <c r="P2">
+        <v>28</v>
       </c>
       <c r="Q2">
         <v>1871</v>
@@ -2937,7 +2823,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -2986,8 +2872,8 @@
       <c r="O3">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
-        <v>759</v>
+      <c r="P3">
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>2758</v>
@@ -3017,7 +2903,7 @@
         <v>17</v>
       </c>
       <c r="Z3" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3066,8 +2952,8 @@
       <c r="O4">
         <v>32</v>
       </c>
-      <c r="P4" t="s">
-        <v>760</v>
+      <c r="P4">
+        <v>32</v>
       </c>
       <c r="Q4">
         <v>2853</v>
@@ -3097,7 +2983,7 @@
         <v>18</v>
       </c>
       <c r="Z4" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3146,8 +3032,8 @@
       <c r="O5">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
-        <v>761</v>
+      <c r="P5">
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>3227</v>
@@ -3177,7 +3063,7 @@
         <v>19</v>
       </c>
       <c r="Z5" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3226,8 +3112,8 @@
       <c r="O6">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
-        <v>762</v>
+      <c r="P6">
+        <v>26</v>
       </c>
       <c r="Q6">
         <v>1863</v>
@@ -3257,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="Z6" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3306,8 +3192,8 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
-        <v>763</v>
+      <c r="P7">
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -3337,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -3386,8 +3272,8 @@
       <c r="O8">
         <v>27</v>
       </c>
-      <c r="P8" t="s">
-        <v>759</v>
+      <c r="P8">
+        <v>35</v>
       </c>
       <c r="Q8">
         <v>3009</v>
@@ -3417,7 +3303,7 @@
         <v>18</v>
       </c>
       <c r="Z8" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -3466,8 +3352,8 @@
       <c r="O9">
         <v>23</v>
       </c>
-      <c r="P9" t="s">
-        <v>764</v>
+      <c r="P9">
+        <v>37</v>
       </c>
       <c r="Q9">
         <v>3231</v>
@@ -3497,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="Z9" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -3546,8 +3432,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
-        <v>765</v>
+      <c r="P10">
+        <v>7</v>
       </c>
       <c r="Q10">
         <v>231</v>
@@ -3577,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="Z10" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -3626,8 +3512,8 @@
       <c r="O11">
         <v>6</v>
       </c>
-      <c r="P11" t="s">
-        <v>766</v>
+      <c r="P11">
+        <v>13</v>
       </c>
       <c r="Q11">
         <v>957</v>
@@ -3657,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="Z11" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -3706,8 +3592,8 @@
       <c r="O12">
         <v>3</v>
       </c>
-      <c r="P12" t="s">
-        <v>767</v>
+      <c r="P12">
+        <v>34</v>
       </c>
       <c r="Q12">
         <v>3060</v>
@@ -3737,7 +3623,7 @@
         <v>14</v>
       </c>
       <c r="Z12" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -3786,8 +3672,8 @@
       <c r="O13">
         <v>18</v>
       </c>
-      <c r="P13" t="s">
-        <v>768</v>
+      <c r="P13">
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>2978</v>
@@ -3817,7 +3703,7 @@
         <v>13</v>
       </c>
       <c r="Z13" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -3866,8 +3752,8 @@
       <c r="O14">
         <v>11</v>
       </c>
-      <c r="P14" t="s">
-        <v>768</v>
+      <c r="P14">
+        <v>38</v>
       </c>
       <c r="Q14">
         <v>3377</v>
@@ -3897,7 +3783,7 @@
         <v>13</v>
       </c>
       <c r="Z14" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3946,8 +3832,8 @@
       <c r="O15">
         <v>15</v>
       </c>
-      <c r="P15" t="s">
-        <v>761</v>
+      <c r="P15">
+        <v>36</v>
       </c>
       <c r="Q15">
         <v>3240</v>
@@ -3977,7 +3863,7 @@
         <v>20</v>
       </c>
       <c r="Z15" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4026,8 +3912,8 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
-        <v>766</v>
+      <c r="P16">
+        <v>13</v>
       </c>
       <c r="Q16">
         <v>459</v>
@@ -4057,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="Z16" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -4106,8 +3992,8 @@
       <c r="O17">
         <v>7</v>
       </c>
-      <c r="P17" t="s">
-        <v>769</v>
+      <c r="P17">
+        <v>19</v>
       </c>
       <c r="Q17">
         <v>1327</v>
@@ -4137,7 +4023,7 @@
         <v>7</v>
       </c>
       <c r="Z17" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -4186,8 +4072,8 @@
       <c r="O18">
         <v>3</v>
       </c>
-      <c r="P18" t="s">
-        <v>770</v>
+      <c r="P18">
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>429</v>
@@ -4217,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -4266,8 +4152,8 @@
       <c r="O19">
         <v>6</v>
       </c>
-      <c r="P19" t="s">
-        <v>771</v>
+      <c r="P19">
+        <v>29</v>
       </c>
       <c r="Q19">
         <v>1855</v>
@@ -4297,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="Z19" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -4346,8 +4232,8 @@
       <c r="O20">
         <v>4</v>
       </c>
-      <c r="P20" t="s">
-        <v>764</v>
+      <c r="P20">
+        <v>37</v>
       </c>
       <c r="Q20">
         <v>3330</v>
@@ -4377,7 +4263,7 @@
         <v>20</v>
       </c>
       <c r="Z20" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -4426,8 +4312,8 @@
       <c r="O21">
         <v>33</v>
       </c>
-      <c r="P21" t="s">
-        <v>772</v>
+      <c r="P21">
+        <v>30</v>
       </c>
       <c r="Q21">
         <v>2196</v>
@@ -4457,7 +4343,7 @@
         <v>13</v>
       </c>
       <c r="Z21" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -4506,8 +4392,8 @@
       <c r="O22">
         <v>11</v>
       </c>
-      <c r="P22" t="s">
-        <v>773</v>
+      <c r="P22">
+        <v>17</v>
       </c>
       <c r="Q22">
         <v>1031</v>
@@ -4537,7 +4423,7 @@
         <v>4</v>
       </c>
       <c r="Z22" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -4586,8 +4472,8 @@
       <c r="O23">
         <v>8</v>
       </c>
-      <c r="P23" t="s">
-        <v>764</v>
+      <c r="P23">
+        <v>37</v>
       </c>
       <c r="Q23">
         <v>3330</v>
@@ -4617,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="Z23" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -4666,8 +4552,8 @@
       <c r="O24">
         <v>13</v>
       </c>
-      <c r="P24" t="s">
-        <v>767</v>
+      <c r="P24">
+        <v>34</v>
       </c>
       <c r="Q24">
         <v>3060</v>
@@ -4697,7 +4583,7 @@
         <v>21</v>
       </c>
       <c r="Z24" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -4746,8 +4632,8 @@
       <c r="O25">
         <v>4</v>
       </c>
-      <c r="P25" t="s">
-        <v>774</v>
+      <c r="P25">
+        <v>15</v>
       </c>
       <c r="Q25">
         <v>1044</v>
@@ -4777,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="Z25" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -4826,8 +4712,8 @@
       <c r="O26">
         <v>9</v>
       </c>
-      <c r="P26" t="s">
-        <v>761</v>
+      <c r="P26">
+        <v>36</v>
       </c>
       <c r="Q26">
         <v>2782</v>
@@ -4857,7 +4743,7 @@
         <v>11</v>
       </c>
       <c r="Z26" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -4906,8 +4792,8 @@
       <c r="O27">
         <v>14</v>
       </c>
-      <c r="P27" t="s">
-        <v>767</v>
+      <c r="P27">
+        <v>34</v>
       </c>
       <c r="Q27">
         <v>3060</v>
@@ -4937,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="Z27" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -4986,8 +4872,8 @@
       <c r="O28">
         <v>9</v>
       </c>
-      <c r="P28" t="s">
-        <v>771</v>
+      <c r="P28">
+        <v>29</v>
       </c>
       <c r="Q28">
         <v>1894</v>
@@ -5017,7 +4903,7 @@
         <v>6</v>
       </c>
       <c r="Z28" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -5066,8 +4952,8 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" t="s">
-        <v>775</v>
+      <c r="P29">
+        <v>25</v>
       </c>
       <c r="Q29">
         <v>1224</v>
@@ -5097,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="Z29" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -5146,8 +5032,8 @@
       <c r="O30">
         <v>12</v>
       </c>
-      <c r="P30" t="s">
-        <v>771</v>
+      <c r="P30">
+        <v>29</v>
       </c>
       <c r="Q30">
         <v>2401</v>
@@ -5177,7 +5063,7 @@
         <v>14</v>
       </c>
       <c r="Z30" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -5226,8 +5112,8 @@
       <c r="O31">
         <v>23</v>
       </c>
-      <c r="P31" t="s">
-        <v>771</v>
+      <c r="P31">
+        <v>29</v>
       </c>
       <c r="Q31">
         <v>2537</v>
@@ -5257,7 +5143,7 @@
         <v>17</v>
       </c>
       <c r="Z31" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -5306,8 +5192,8 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32" t="s">
-        <v>776</v>
+      <c r="P32">
+        <v>10</v>
       </c>
       <c r="Q32">
         <v>563</v>
@@ -5337,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="Z32" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -5386,8 +5272,8 @@
       <c r="O33">
         <v>16</v>
       </c>
-      <c r="P33" t="s">
-        <v>760</v>
+      <c r="P33">
+        <v>32</v>
       </c>
       <c r="Q33">
         <v>2358</v>
@@ -5417,7 +5303,7 @@
         <v>11</v>
       </c>
       <c r="Z33" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -5466,8 +5352,8 @@
       <c r="O34">
         <v>5</v>
       </c>
-      <c r="P34" t="s">
-        <v>777</v>
+      <c r="P34">
+        <v>24</v>
       </c>
       <c r="Q34">
         <v>2160</v>
@@ -5497,7 +5383,7 @@
         <v>8</v>
       </c>
       <c r="Z34" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -5546,8 +5432,8 @@
       <c r="O35">
         <v>21</v>
       </c>
-      <c r="P35" t="s">
-        <v>761</v>
+      <c r="P35">
+        <v>36</v>
       </c>
       <c r="Q35">
         <v>3215</v>
@@ -5577,7 +5463,7 @@
         <v>7</v>
       </c>
       <c r="Z35" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -5626,8 +5512,8 @@
       <c r="O36">
         <v>1</v>
       </c>
-      <c r="P36" t="s">
-        <v>778</v>
+      <c r="P36">
+        <v>18</v>
       </c>
       <c r="Q36">
         <v>750</v>
@@ -5657,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="Z36" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -5706,8 +5592,8 @@
       <c r="O37">
         <v>6</v>
       </c>
-      <c r="P37" t="s">
-        <v>769</v>
+      <c r="P37">
+        <v>19</v>
       </c>
       <c r="Q37">
         <v>1710</v>
@@ -5737,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="Z37" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -5786,8 +5672,8 @@
       <c r="O38">
         <v>21</v>
       </c>
-      <c r="P38" t="s">
-        <v>759</v>
+      <c r="P38">
+        <v>35</v>
       </c>
       <c r="Q38">
         <v>3089</v>
@@ -5817,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="Z38" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -5866,8 +5752,8 @@
       <c r="O39">
         <v>16</v>
       </c>
-      <c r="P39" t="s">
-        <v>759</v>
+      <c r="P39">
+        <v>35</v>
       </c>
       <c r="Q39">
         <v>3063</v>
@@ -5897,7 +5783,7 @@
         <v>13</v>
       </c>
       <c r="Z39" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -5946,8 +5832,8 @@
       <c r="O40">
         <v>24</v>
       </c>
-      <c r="P40" t="s">
-        <v>761</v>
+      <c r="P40">
+        <v>36</v>
       </c>
       <c r="Q40">
         <v>2987</v>
@@ -5977,7 +5863,7 @@
         <v>8</v>
       </c>
       <c r="Z40" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="1:26">
@@ -6026,8 +5912,8 @@
       <c r="O41">
         <v>15</v>
       </c>
-      <c r="P41" t="s">
-        <v>759</v>
+      <c r="P41">
+        <v>35</v>
       </c>
       <c r="Q41">
         <v>2856</v>
@@ -6057,7 +5943,7 @@
         <v>16</v>
       </c>
       <c r="Z41" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="42" spans="1:26">
@@ -6106,8 +5992,8 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42" t="s">
-        <v>779</v>
+      <c r="P42">
+        <v>33</v>
       </c>
       <c r="Q42">
         <v>1457</v>
@@ -6137,7 +6023,7 @@
         <v>2</v>
       </c>
       <c r="Z42" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -6186,8 +6072,8 @@
       <c r="O43">
         <v>15</v>
       </c>
-      <c r="P43" t="s">
-        <v>759</v>
+      <c r="P43">
+        <v>35</v>
       </c>
       <c r="Q43">
         <v>2804</v>
@@ -6217,7 +6103,7 @@
         <v>9</v>
       </c>
       <c r="Z43" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="44" spans="1:26">
@@ -6266,8 +6152,8 @@
       <c r="O44">
         <v>11</v>
       </c>
-      <c r="P44" t="s">
-        <v>779</v>
+      <c r="P44">
+        <v>33</v>
       </c>
       <c r="Q44">
         <v>2759</v>
@@ -6297,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="Z44" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45" spans="1:26">
@@ -6346,8 +6232,8 @@
       <c r="O45">
         <v>7</v>
       </c>
-      <c r="P45" t="s">
-        <v>768</v>
+      <c r="P45">
+        <v>38</v>
       </c>
       <c r="Q45">
         <v>3420</v>
@@ -6377,7 +6263,7 @@
         <v>8</v>
       </c>
       <c r="Z45" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="1:26">
@@ -6426,8 +6312,8 @@
       <c r="O46">
         <v>9</v>
       </c>
-      <c r="P46" t="s">
-        <v>760</v>
+      <c r="P46">
+        <v>32</v>
       </c>
       <c r="Q46">
         <v>2880</v>
@@ -6457,7 +6343,7 @@
         <v>13</v>
       </c>
       <c r="Z46" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -6506,8 +6392,8 @@
       <c r="O47">
         <v>12</v>
       </c>
-      <c r="P47" t="s">
-        <v>761</v>
+      <c r="P47">
+        <v>36</v>
       </c>
       <c r="Q47">
         <v>3188</v>
@@ -6537,7 +6423,7 @@
         <v>11</v>
       </c>
       <c r="Z47" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -6586,8 +6472,8 @@
       <c r="O48">
         <v>8</v>
       </c>
-      <c r="P48" t="s">
-        <v>778</v>
+      <c r="P48">
+        <v>18</v>
       </c>
       <c r="Q48">
         <v>1259</v>
@@ -6617,7 +6503,7 @@
         <v>9</v>
       </c>
       <c r="Z48" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="49" spans="1:26">
@@ -6666,8 +6552,8 @@
       <c r="O49">
         <v>5</v>
       </c>
-      <c r="P49" t="s">
-        <v>780</v>
+      <c r="P49">
+        <v>20</v>
       </c>
       <c r="Q49">
         <v>1755</v>
@@ -6697,7 +6583,7 @@
         <v>10</v>
       </c>
       <c r="Z49" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" spans="1:26">
@@ -6746,8 +6632,8 @@
       <c r="O50">
         <v>5</v>
       </c>
-      <c r="P50" t="s">
-        <v>781</v>
+      <c r="P50">
+        <v>21</v>
       </c>
       <c r="Q50">
         <v>1680</v>
@@ -6777,7 +6663,7 @@
         <v>9</v>
       </c>
       <c r="Z50" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="51" spans="1:26">
@@ -6826,8 +6712,8 @@
       <c r="O51">
         <v>2</v>
       </c>
-      <c r="P51" t="s">
-        <v>782</v>
+      <c r="P51">
+        <v>8</v>
       </c>
       <c r="Q51">
         <v>207</v>
@@ -6857,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="52" spans="1:26">
@@ -6906,8 +6792,8 @@
       <c r="O52">
         <v>15</v>
       </c>
-      <c r="P52" t="s">
-        <v>772</v>
+      <c r="P52">
+        <v>30</v>
       </c>
       <c r="Q52">
         <v>2121</v>
@@ -6937,7 +6823,7 @@
         <v>13</v>
       </c>
       <c r="Z52" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="53" spans="1:26">
@@ -6986,8 +6872,8 @@
       <c r="O53">
         <v>14</v>
       </c>
-      <c r="P53" t="s">
-        <v>760</v>
+      <c r="P53">
+        <v>32</v>
       </c>
       <c r="Q53">
         <v>2649</v>
@@ -7017,7 +6903,7 @@
         <v>11</v>
       </c>
       <c r="Z53" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="1:26">
@@ -7066,8 +6952,8 @@
       <c r="O54">
         <v>7</v>
       </c>
-      <c r="P54" t="s">
-        <v>761</v>
+      <c r="P54">
+        <v>36</v>
       </c>
       <c r="Q54">
         <v>3178</v>
@@ -7097,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="Z54" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="55" spans="1:26">
@@ -7146,8 +7032,8 @@
       <c r="O55">
         <v>11</v>
       </c>
-      <c r="P55" t="s">
-        <v>758</v>
+      <c r="P55">
+        <v>28</v>
       </c>
       <c r="Q55">
         <v>2125</v>
@@ -7177,7 +7063,7 @@
         <v>13</v>
       </c>
       <c r="Z55" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="56" spans="1:26">
@@ -7226,8 +7112,8 @@
       <c r="O56">
         <v>5</v>
       </c>
-      <c r="P56" t="s">
-        <v>765</v>
+      <c r="P56">
+        <v>7</v>
       </c>
       <c r="Q56">
         <v>541</v>
@@ -7257,7 +7143,7 @@
         <v>4</v>
       </c>
       <c r="Z56" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="57" spans="1:26">
@@ -7306,8 +7192,8 @@
       <c r="O57">
         <v>12</v>
       </c>
-      <c r="P57" t="s">
-        <v>758</v>
+      <c r="P57">
+        <v>28</v>
       </c>
       <c r="Q57">
         <v>1485</v>
@@ -7337,7 +7223,7 @@
         <v>7</v>
       </c>
       <c r="Z57" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:26">
@@ -7386,8 +7272,8 @@
       <c r="O58">
         <v>12</v>
       </c>
-      <c r="P58" t="s">
-        <v>759</v>
+      <c r="P58">
+        <v>35</v>
       </c>
       <c r="Q58">
         <v>3150</v>
@@ -7417,7 +7303,7 @@
         <v>7</v>
       </c>
       <c r="Z58" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:26">
@@ -7466,8 +7352,8 @@
       <c r="O59">
         <v>24</v>
       </c>
-      <c r="P59" t="s">
-        <v>759</v>
+      <c r="P59">
+        <v>35</v>
       </c>
       <c r="Q59">
         <v>2454</v>
@@ -7497,7 +7383,7 @@
         <v>5</v>
       </c>
       <c r="Z59" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="60" spans="1:26">
@@ -7546,8 +7432,8 @@
       <c r="O60">
         <v>19</v>
       </c>
-      <c r="P60" t="s">
-        <v>779</v>
+      <c r="P60">
+        <v>33</v>
       </c>
       <c r="Q60">
         <v>2908</v>
@@ -7577,7 +7463,7 @@
         <v>8</v>
       </c>
       <c r="Z60" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="61" spans="1:26">
@@ -7626,8 +7512,8 @@
       <c r="O61">
         <v>7</v>
       </c>
-      <c r="P61" t="s">
-        <v>761</v>
+      <c r="P61">
+        <v>36</v>
       </c>
       <c r="Q61">
         <v>3240</v>
@@ -7657,7 +7543,7 @@
         <v>11</v>
       </c>
       <c r="Z61" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:26">
@@ -7706,8 +7592,8 @@
       <c r="O62">
         <v>10</v>
       </c>
-      <c r="P62" t="s">
-        <v>768</v>
+      <c r="P62">
+        <v>38</v>
       </c>
       <c r="Q62">
         <v>3361</v>
@@ -7737,7 +7623,7 @@
         <v>11</v>
       </c>
       <c r="Z62" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="63" spans="1:26">
@@ -7786,8 +7672,8 @@
       <c r="O63">
         <v>11</v>
       </c>
-      <c r="P63" t="s">
-        <v>768</v>
+      <c r="P63">
+        <v>38</v>
       </c>
       <c r="Q63">
         <v>3420</v>
@@ -7817,7 +7703,7 @@
         <v>16</v>
       </c>
       <c r="Z63" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="64" spans="1:26">
@@ -7866,8 +7752,8 @@
       <c r="O64">
         <v>11</v>
       </c>
-      <c r="P64" t="s">
-        <v>764</v>
+      <c r="P64">
+        <v>37</v>
       </c>
       <c r="Q64">
         <v>3285</v>
@@ -7897,7 +7783,7 @@
         <v>11</v>
       </c>
       <c r="Z64" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:26">
@@ -7946,8 +7832,8 @@
       <c r="O65">
         <v>24</v>
       </c>
-      <c r="P65" t="s">
-        <v>775</v>
+      <c r="P65">
+        <v>25</v>
       </c>
       <c r="Q65">
         <v>1801</v>
@@ -7977,7 +7863,7 @@
         <v>4</v>
       </c>
       <c r="Z65" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="66" spans="1:26">
@@ -8026,8 +7912,8 @@
       <c r="O66">
         <v>2</v>
       </c>
-      <c r="P66" t="s">
-        <v>762</v>
+      <c r="P66">
+        <v>26</v>
       </c>
       <c r="Q66">
         <v>1910</v>
@@ -8057,7 +7943,7 @@
         <v>15</v>
       </c>
       <c r="Z66" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="67" spans="1:26">
@@ -8106,8 +7992,8 @@
       <c r="O67">
         <v>5</v>
       </c>
-      <c r="P67" t="s">
-        <v>777</v>
+      <c r="P67">
+        <v>24</v>
       </c>
       <c r="Q67">
         <v>1797</v>
@@ -8137,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="Z67" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="68" spans="1:26">
@@ -8186,8 +8072,8 @@
       <c r="O68">
         <v>12</v>
       </c>
-      <c r="P68" t="s">
-        <v>761</v>
+      <c r="P68">
+        <v>36</v>
       </c>
       <c r="Q68">
         <v>3240</v>
@@ -8217,7 +8103,7 @@
         <v>9</v>
       </c>
       <c r="Z68" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="69" spans="1:26">
@@ -8266,8 +8152,8 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="P69" t="s">
-        <v>763</v>
+      <c r="P69">
+        <v>1</v>
       </c>
       <c r="Q69">
         <v>90</v>
@@ -8297,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="Z69" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="70" spans="1:26">
@@ -8346,8 +8232,8 @@
       <c r="O70">
         <v>14</v>
       </c>
-      <c r="P70" t="s">
-        <v>761</v>
+      <c r="P70">
+        <v>36</v>
       </c>
       <c r="Q70">
         <v>2975</v>
@@ -8377,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="Z70" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:26">
@@ -8426,8 +8312,8 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71" t="s">
-        <v>783</v>
+      <c r="P71">
+        <v>3</v>
       </c>
       <c r="Q71">
         <v>24</v>
@@ -8457,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="Z71" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:26">
@@ -8506,8 +8392,8 @@
       <c r="O72">
         <v>5</v>
       </c>
-      <c r="P72" t="s">
-        <v>771</v>
+      <c r="P72">
+        <v>29</v>
       </c>
       <c r="Q72">
         <v>1802</v>
@@ -8537,7 +8423,7 @@
         <v>10</v>
       </c>
       <c r="Z72" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="73" spans="1:26">
@@ -8586,8 +8472,8 @@
       <c r="O73">
         <v>14</v>
       </c>
-      <c r="P73" t="s">
-        <v>758</v>
+      <c r="P73">
+        <v>28</v>
       </c>
       <c r="Q73">
         <v>2164</v>
@@ -8617,7 +8503,7 @@
         <v>9</v>
       </c>
       <c r="Z73" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="74" spans="1:26">
@@ -8666,8 +8552,8 @@
       <c r="O74">
         <v>29</v>
       </c>
-      <c r="P74" t="s">
-        <v>772</v>
+      <c r="P74">
+        <v>30</v>
       </c>
       <c r="Q74">
         <v>2454</v>
@@ -8697,7 +8583,7 @@
         <v>8</v>
       </c>
       <c r="Z74" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="75" spans="1:26">
@@ -8746,8 +8632,8 @@
       <c r="O75">
         <v>2</v>
       </c>
-      <c r="P75" t="s">
-        <v>784</v>
+      <c r="P75">
+        <v>11</v>
       </c>
       <c r="Q75">
         <v>938</v>
@@ -8777,7 +8663,7 @@
         <v>4</v>
       </c>
       <c r="Z75" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="76" spans="1:26">
@@ -8826,8 +8712,8 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76" t="s">
-        <v>784</v>
+      <c r="P76">
+        <v>11</v>
       </c>
       <c r="Q76">
         <v>735</v>
@@ -8857,7 +8743,7 @@
         <v>5</v>
       </c>
       <c r="Z76" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="1:26">
@@ -8906,8 +8792,8 @@
       <c r="O77">
         <v>10</v>
       </c>
-      <c r="P77" t="s">
-        <v>760</v>
+      <c r="P77">
+        <v>32</v>
       </c>
       <c r="Q77">
         <v>2095</v>
@@ -8937,7 +8823,7 @@
         <v>8</v>
       </c>
       <c r="Z77" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:26">
@@ -8986,8 +8872,8 @@
       <c r="O78">
         <v>3</v>
       </c>
-      <c r="P78" t="s">
-        <v>782</v>
+      <c r="P78">
+        <v>8</v>
       </c>
       <c r="Q78">
         <v>720</v>
@@ -9017,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="Z78" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="79" spans="1:26">
@@ -9066,8 +8952,8 @@
       <c r="O79">
         <v>8</v>
       </c>
-      <c r="P79" t="s">
-        <v>771</v>
+      <c r="P79">
+        <v>29</v>
       </c>
       <c r="Q79">
         <v>2440</v>
@@ -9097,7 +8983,7 @@
         <v>7</v>
       </c>
       <c r="Z79" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -9146,8 +9032,8 @@
       <c r="O80">
         <v>17</v>
       </c>
-      <c r="P80" t="s">
-        <v>759</v>
+      <c r="P80">
+        <v>35</v>
       </c>
       <c r="Q80">
         <v>2950</v>
@@ -9177,7 +9063,7 @@
         <v>10</v>
       </c>
       <c r="Z80" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="81" spans="1:26">
@@ -9226,8 +9112,8 @@
       <c r="O81">
         <v>9</v>
       </c>
-      <c r="P81" t="s">
-        <v>779</v>
+      <c r="P81">
+        <v>33</v>
       </c>
       <c r="Q81">
         <v>1909</v>
@@ -9257,7 +9143,7 @@
         <v>8</v>
       </c>
       <c r="Z81" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -9306,8 +9192,8 @@
       <c r="O82">
         <v>17</v>
       </c>
-      <c r="P82" t="s">
-        <v>785</v>
+      <c r="P82">
+        <v>31</v>
       </c>
       <c r="Q82">
         <v>2726</v>
@@ -9337,7 +9223,7 @@
         <v>7</v>
       </c>
       <c r="Z82" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -9386,8 +9272,8 @@
       <c r="O83">
         <v>15</v>
       </c>
-      <c r="P83" t="s">
-        <v>761</v>
+      <c r="P83">
+        <v>36</v>
       </c>
       <c r="Q83">
         <v>3110</v>
@@ -9417,7 +9303,7 @@
         <v>8</v>
       </c>
       <c r="Z83" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -9466,8 +9352,8 @@
       <c r="O84">
         <v>7</v>
       </c>
-      <c r="P84" t="s">
-        <v>759</v>
+      <c r="P84">
+        <v>35</v>
       </c>
       <c r="Q84">
         <v>3071</v>
@@ -9497,7 +9383,7 @@
         <v>16</v>
       </c>
       <c r="Z84" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="85" spans="1:26">
@@ -9546,8 +9432,8 @@
       <c r="O85">
         <v>9</v>
       </c>
-      <c r="P85" t="s">
-        <v>758</v>
+      <c r="P85">
+        <v>28</v>
       </c>
       <c r="Q85">
         <v>1554</v>
@@ -9577,7 +9463,7 @@
         <v>9</v>
       </c>
       <c r="Z85" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -9626,8 +9512,8 @@
       <c r="O86">
         <v>4</v>
       </c>
-      <c r="P86" t="s">
-        <v>786</v>
+      <c r="P86">
+        <v>14</v>
       </c>
       <c r="Q86">
         <v>1117</v>
@@ -9657,7 +9543,7 @@
         <v>9</v>
       </c>
       <c r="Z86" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -9706,8 +9592,8 @@
       <c r="O87">
         <v>8</v>
       </c>
-      <c r="P87" t="s">
-        <v>768</v>
+      <c r="P87">
+        <v>38</v>
       </c>
       <c r="Q87">
         <v>3384</v>
@@ -9737,7 +9623,7 @@
         <v>5</v>
       </c>
       <c r="Z87" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88" spans="1:26">
@@ -9786,8 +9672,8 @@
       <c r="O88">
         <v>2</v>
       </c>
-      <c r="P88" t="s">
-        <v>762</v>
+      <c r="P88">
+        <v>26</v>
       </c>
       <c r="Q88">
         <v>1769</v>
@@ -9817,7 +9703,7 @@
         <v>9</v>
       </c>
       <c r="Z88" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -9866,8 +9752,8 @@
       <c r="O89">
         <v>14</v>
       </c>
-      <c r="P89" t="s">
-        <v>778</v>
+      <c r="P89">
+        <v>18</v>
       </c>
       <c r="Q89">
         <v>1386</v>
@@ -9897,7 +9783,7 @@
         <v>3</v>
       </c>
       <c r="Z89" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="90" spans="1:26">
@@ -9946,8 +9832,8 @@
       <c r="O90">
         <v>7</v>
       </c>
-      <c r="P90" t="s">
-        <v>772</v>
+      <c r="P90">
+        <v>30</v>
       </c>
       <c r="Q90">
         <v>1547</v>
@@ -9977,7 +9863,7 @@
         <v>6</v>
       </c>
       <c r="Z90" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="91" spans="1:26">
@@ -10026,8 +9912,8 @@
       <c r="O91">
         <v>0</v>
       </c>
-      <c r="P91" t="s">
-        <v>763</v>
+      <c r="P91">
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>90</v>
@@ -10057,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="Z91" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="1:26">
@@ -10106,8 +9992,8 @@
       <c r="O92">
         <v>14</v>
       </c>
-      <c r="P92" t="s">
-        <v>767</v>
+      <c r="P92">
+        <v>34</v>
       </c>
       <c r="Q92">
         <v>2914</v>
@@ -10137,7 +10023,7 @@
         <v>12</v>
       </c>
       <c r="Z92" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93" spans="1:26">
@@ -10186,8 +10072,8 @@
       <c r="O93">
         <v>6</v>
       </c>
-      <c r="P93" t="s">
-        <v>759</v>
+      <c r="P93">
+        <v>35</v>
       </c>
       <c r="Q93">
         <v>2905</v>
@@ -10217,7 +10103,7 @@
         <v>9</v>
       </c>
       <c r="Z93" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:26">
@@ -10266,8 +10152,8 @@
       <c r="O94">
         <v>9</v>
       </c>
-      <c r="P94" t="s">
-        <v>775</v>
+      <c r="P94">
+        <v>25</v>
       </c>
       <c r="Q94">
         <v>1914</v>
@@ -10297,7 +10183,7 @@
         <v>9</v>
       </c>
       <c r="Z94" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="95" spans="1:26">
@@ -10346,8 +10232,8 @@
       <c r="O95">
         <v>20</v>
       </c>
-      <c r="P95" t="s">
-        <v>785</v>
+      <c r="P95">
+        <v>31</v>
       </c>
       <c r="Q95">
         <v>2790</v>
@@ -10377,7 +10263,7 @@
         <v>17</v>
       </c>
       <c r="Z95" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="96" spans="1:26">
@@ -10426,8 +10312,8 @@
       <c r="O96">
         <v>13</v>
       </c>
-      <c r="P96" t="s">
-        <v>764</v>
+      <c r="P96">
+        <v>37</v>
       </c>
       <c r="Q96">
         <v>3321</v>
@@ -10457,7 +10343,7 @@
         <v>8</v>
       </c>
       <c r="Z96" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97" spans="1:26">
@@ -10506,8 +10392,8 @@
       <c r="O97">
         <v>9</v>
       </c>
-      <c r="P97" t="s">
-        <v>767</v>
+      <c r="P97">
+        <v>34</v>
       </c>
       <c r="Q97">
         <v>2465</v>
@@ -10537,7 +10423,7 @@
         <v>12</v>
       </c>
       <c r="Z97" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="98" spans="1:26">
@@ -10586,8 +10472,8 @@
       <c r="O98">
         <v>11</v>
       </c>
-      <c r="P98" t="s">
-        <v>787</v>
+      <c r="P98">
+        <v>22</v>
       </c>
       <c r="Q98">
         <v>1916</v>
@@ -10617,7 +10503,7 @@
         <v>11</v>
       </c>
       <c r="Z98" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="99" spans="1:26">
@@ -10666,8 +10552,8 @@
       <c r="O99">
         <v>4</v>
       </c>
-      <c r="P99" t="s">
-        <v>762</v>
+      <c r="P99">
+        <v>26</v>
       </c>
       <c r="Q99">
         <v>2119</v>
@@ -10697,7 +10583,7 @@
         <v>2</v>
       </c>
       <c r="Z99" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="100" spans="1:26">
@@ -10746,8 +10632,8 @@
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100" t="s">
-        <v>788</v>
+      <c r="P100">
+        <v>2</v>
       </c>
       <c r="Q100">
         <v>180</v>
@@ -10777,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="Z100" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="101" spans="1:26">
@@ -10826,8 +10712,8 @@
       <c r="O101">
         <v>15</v>
       </c>
-      <c r="P101" t="s">
-        <v>760</v>
+      <c r="P101">
+        <v>32</v>
       </c>
       <c r="Q101">
         <v>2162</v>
@@ -10857,7 +10743,7 @@
         <v>9</v>
       </c>
       <c r="Z101" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="102" spans="1:26">
@@ -10906,8 +10792,8 @@
       <c r="O102">
         <v>10</v>
       </c>
-      <c r="P102" t="s">
-        <v>787</v>
+      <c r="P102">
+        <v>22</v>
       </c>
       <c r="Q102">
         <v>1844</v>
@@ -10937,7 +10823,7 @@
         <v>5</v>
       </c>
       <c r="Z102" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="103" spans="1:26">
@@ -10986,8 +10872,8 @@
       <c r="O103">
         <v>9</v>
       </c>
-      <c r="P103" t="s">
-        <v>779</v>
+      <c r="P103">
+        <v>33</v>
       </c>
       <c r="Q103">
         <v>2884</v>
@@ -11017,7 +10903,7 @@
         <v>17</v>
       </c>
       <c r="Z103" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="104" spans="1:26">
@@ -11066,8 +10952,8 @@
       <c r="O104">
         <v>8</v>
       </c>
-      <c r="P104" t="s">
-        <v>761</v>
+      <c r="P104">
+        <v>36</v>
       </c>
       <c r="Q104">
         <v>3222</v>
@@ -11097,7 +10983,7 @@
         <v>11</v>
       </c>
       <c r="Z104" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="105" spans="1:26">
@@ -11146,8 +11032,8 @@
       <c r="O105">
         <v>1</v>
       </c>
-      <c r="P105" t="s">
-        <v>766</v>
+      <c r="P105">
+        <v>13</v>
       </c>
       <c r="Q105">
         <v>996</v>
@@ -11177,7 +11063,7 @@
         <v>2</v>
       </c>
       <c r="Z105" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="106" spans="1:26">
@@ -11226,8 +11112,8 @@
       <c r="O106">
         <v>2</v>
       </c>
-      <c r="P106" t="s">
-        <v>782</v>
+      <c r="P106">
+        <v>8</v>
       </c>
       <c r="Q106">
         <v>545</v>
@@ -11257,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="Z106" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -11306,8 +11192,8 @@
       <c r="O107">
         <v>8</v>
       </c>
-      <c r="P107" t="s">
-        <v>779</v>
+      <c r="P107">
+        <v>33</v>
       </c>
       <c r="Q107">
         <v>2830</v>
@@ -11337,7 +11223,7 @@
         <v>18</v>
       </c>
       <c r="Z107" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -11386,8 +11272,8 @@
       <c r="O108">
         <v>16</v>
       </c>
-      <c r="P108" t="s">
-        <v>767</v>
+      <c r="P108">
+        <v>34</v>
       </c>
       <c r="Q108">
         <v>2843</v>
@@ -11417,7 +11303,7 @@
         <v>11</v>
       </c>
       <c r="Z108" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="109" spans="1:26">
@@ -11466,8 +11352,8 @@
       <c r="O109">
         <v>16</v>
       </c>
-      <c r="P109" t="s">
-        <v>767</v>
+      <c r="P109">
+        <v>34</v>
       </c>
       <c r="Q109">
         <v>2803</v>
@@ -11497,7 +11383,7 @@
         <v>11</v>
       </c>
       <c r="Z109" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="110" spans="1:26">
@@ -11546,8 +11432,8 @@
       <c r="O110">
         <v>10</v>
       </c>
-      <c r="P110" t="s">
-        <v>789</v>
+      <c r="P110">
+        <v>23</v>
       </c>
       <c r="Q110">
         <v>1826</v>
@@ -11577,7 +11463,7 @@
         <v>7</v>
       </c>
       <c r="Z110" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="111" spans="1:26">
@@ -11626,8 +11512,8 @@
       <c r="O111">
         <v>14</v>
       </c>
-      <c r="P111" t="s">
-        <v>760</v>
+      <c r="P111">
+        <v>32</v>
       </c>
       <c r="Q111">
         <v>2629</v>
@@ -11657,7 +11543,7 @@
         <v>6</v>
       </c>
       <c r="Z111" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="112" spans="1:26">
@@ -11706,8 +11592,8 @@
       <c r="O112">
         <v>8</v>
       </c>
-      <c r="P112" t="s">
-        <v>759</v>
+      <c r="P112">
+        <v>35</v>
       </c>
       <c r="Q112">
         <v>2970</v>
@@ -11737,7 +11623,7 @@
         <v>11</v>
       </c>
       <c r="Z112" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="113" spans="1:26">
@@ -11786,8 +11672,8 @@
       <c r="O113">
         <v>1</v>
       </c>
-      <c r="P113" t="s">
-        <v>769</v>
+      <c r="P113">
+        <v>19</v>
       </c>
       <c r="Q113">
         <v>904</v>
@@ -11817,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="Z113" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="114" spans="1:26">
@@ -11866,8 +11752,8 @@
       <c r="O114">
         <v>12</v>
       </c>
-      <c r="P114" t="s">
-        <v>764</v>
+      <c r="P114">
+        <v>37</v>
       </c>
       <c r="Q114">
         <v>3330</v>
@@ -11897,7 +11783,7 @@
         <v>7</v>
       </c>
       <c r="Z114" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="115" spans="1:26">
@@ -11946,8 +11832,8 @@
       <c r="O115">
         <v>14</v>
       </c>
-      <c r="P115" t="s">
-        <v>759</v>
+      <c r="P115">
+        <v>35</v>
       </c>
       <c r="Q115">
         <v>3061</v>
@@ -11977,7 +11863,7 @@
         <v>6</v>
       </c>
       <c r="Z115" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="116" spans="1:26">
@@ -12026,8 +11912,8 @@
       <c r="O116">
         <v>7</v>
       </c>
-      <c r="P116" t="s">
-        <v>771</v>
+      <c r="P116">
+        <v>29</v>
       </c>
       <c r="Q116">
         <v>2573</v>
@@ -12057,7 +11943,7 @@
         <v>10</v>
       </c>
       <c r="Z116" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -12106,8 +11992,8 @@
       <c r="O117">
         <v>9</v>
       </c>
-      <c r="P117" t="s">
-        <v>787</v>
+      <c r="P117">
+        <v>22</v>
       </c>
       <c r="Q117">
         <v>1829</v>
@@ -12137,7 +12023,7 @@
         <v>5</v>
       </c>
       <c r="Z117" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="118" spans="1:26">
@@ -12186,8 +12072,8 @@
       <c r="O118">
         <v>0</v>
       </c>
-      <c r="P118" t="s">
-        <v>763</v>
+      <c r="P118">
+        <v>1</v>
       </c>
       <c r="Q118">
         <v>90</v>
@@ -12217,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="Z118" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="119" spans="1:26">
@@ -12266,8 +12152,8 @@
       <c r="O119">
         <v>12</v>
       </c>
-      <c r="P119" t="s">
-        <v>759</v>
+      <c r="P119">
+        <v>35</v>
       </c>
       <c r="Q119">
         <v>3090</v>
@@ -12297,7 +12183,7 @@
         <v>10</v>
       </c>
       <c r="Z119" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="120" spans="1:26">
@@ -12346,8 +12232,8 @@
       <c r="O120">
         <v>12</v>
       </c>
-      <c r="P120" t="s">
-        <v>772</v>
+      <c r="P120">
+        <v>30</v>
       </c>
       <c r="Q120">
         <v>1891</v>
@@ -12377,7 +12263,7 @@
         <v>10</v>
       </c>
       <c r="Z120" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="121" spans="1:26">
@@ -12426,8 +12312,8 @@
       <c r="O121">
         <v>9</v>
       </c>
-      <c r="P121" t="s">
-        <v>759</v>
+      <c r="P121">
+        <v>35</v>
       </c>
       <c r="Q121">
         <v>2277</v>
@@ -12457,7 +12343,7 @@
         <v>7</v>
       </c>
       <c r="Z121" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="122" spans="1:26">
@@ -12506,8 +12392,8 @@
       <c r="O122">
         <v>11</v>
       </c>
-      <c r="P122" t="s">
-        <v>760</v>
+      <c r="P122">
+        <v>32</v>
       </c>
       <c r="Q122">
         <v>1969</v>
@@ -12537,7 +12423,7 @@
         <v>5</v>
       </c>
       <c r="Z122" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="123" spans="1:26">
@@ -12586,8 +12472,8 @@
       <c r="O123">
         <v>3</v>
       </c>
-      <c r="P123" t="s">
-        <v>775</v>
+      <c r="P123">
+        <v>25</v>
       </c>
       <c r="Q123">
         <v>1527</v>
@@ -12617,7 +12503,7 @@
         <v>11</v>
       </c>
       <c r="Z123" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="124" spans="1:26">
@@ -12666,8 +12552,8 @@
       <c r="O124">
         <v>0</v>
       </c>
-      <c r="P124" t="s">
-        <v>790</v>
+      <c r="P124">
+        <v>4</v>
       </c>
       <c r="Q124">
         <v>216</v>
@@ -12697,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="Z124" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="125" spans="1:26">
@@ -12746,8 +12632,8 @@
       <c r="O125">
         <v>11</v>
       </c>
-      <c r="P125" t="s">
-        <v>772</v>
+      <c r="P125">
+        <v>30</v>
       </c>
       <c r="Q125">
         <v>2655</v>
@@ -12777,7 +12663,7 @@
         <v>11</v>
       </c>
       <c r="Z125" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="126" spans="1:26">
@@ -12826,8 +12712,8 @@
       <c r="O126">
         <v>5</v>
       </c>
-      <c r="P126" t="s">
-        <v>761</v>
+      <c r="P126">
+        <v>36</v>
       </c>
       <c r="Q126">
         <v>2795</v>
@@ -12857,7 +12743,7 @@
         <v>8</v>
       </c>
       <c r="Z126" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="127" spans="1:26">
@@ -12906,8 +12792,8 @@
       <c r="O127">
         <v>10</v>
       </c>
-      <c r="P127" t="s">
-        <v>773</v>
+      <c r="P127">
+        <v>17</v>
       </c>
       <c r="Q127">
         <v>1281</v>
@@ -12937,7 +12823,7 @@
         <v>3</v>
       </c>
       <c r="Z127" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="128" spans="1:26">
@@ -12986,8 +12872,8 @@
       <c r="O128">
         <v>0</v>
       </c>
-      <c r="P128" t="s">
-        <v>784</v>
+      <c r="P128">
+        <v>11</v>
       </c>
       <c r="Q128">
         <v>990</v>
@@ -13017,7 +12903,7 @@
         <v>4</v>
       </c>
       <c r="Z128" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="129" spans="1:26">
@@ -13066,8 +12952,8 @@
       <c r="O129">
         <v>0</v>
       </c>
-      <c r="P129" t="s">
-        <v>788</v>
+      <c r="P129">
+        <v>2</v>
       </c>
       <c r="Q129">
         <v>180</v>
@@ -13097,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="Z129" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="130" spans="1:26">
@@ -13146,8 +13032,8 @@
       <c r="O130">
         <v>8</v>
       </c>
-      <c r="P130" t="s">
-        <v>767</v>
+      <c r="P130">
+        <v>34</v>
       </c>
       <c r="Q130">
         <v>2694</v>
@@ -13177,7 +13063,7 @@
         <v>6</v>
       </c>
       <c r="Z130" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="131" spans="1:26">
@@ -13226,8 +13112,8 @@
       <c r="O131">
         <v>8</v>
       </c>
-      <c r="P131" t="s">
-        <v>759</v>
+      <c r="P131">
+        <v>35</v>
       </c>
       <c r="Q131">
         <v>2357</v>
@@ -13257,7 +13143,7 @@
         <v>14</v>
       </c>
       <c r="Z131" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132" spans="1:26">
@@ -13306,8 +13192,8 @@
       <c r="O132">
         <v>7</v>
       </c>
-      <c r="P132" t="s">
-        <v>779</v>
+      <c r="P132">
+        <v>33</v>
       </c>
       <c r="Q132">
         <v>2659</v>
@@ -13337,7 +13223,7 @@
         <v>9</v>
       </c>
       <c r="Z132" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="133" spans="1:26">
@@ -13386,8 +13272,8 @@
       <c r="O133">
         <v>0</v>
       </c>
-      <c r="P133" t="s">
-        <v>763</v>
+      <c r="P133">
+        <v>1</v>
       </c>
       <c r="Q133">
         <v>90</v>
@@ -13417,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="Z133" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:26">
@@ -13466,8 +13352,8 @@
       <c r="O134">
         <v>7</v>
       </c>
-      <c r="P134" t="s">
-        <v>779</v>
+      <c r="P134">
+        <v>33</v>
       </c>
       <c r="Q134">
         <v>2871</v>
@@ -13497,7 +13383,7 @@
         <v>9</v>
       </c>
       <c r="Z134" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="135" spans="1:26">
@@ -13546,8 +13432,8 @@
       <c r="O135">
         <v>9</v>
       </c>
-      <c r="P135" t="s">
-        <v>762</v>
+      <c r="P135">
+        <v>26</v>
       </c>
       <c r="Q135">
         <v>2340</v>
@@ -13577,7 +13463,7 @@
         <v>8</v>
       </c>
       <c r="Z135" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="136" spans="1:26">
@@ -13626,8 +13512,8 @@
       <c r="O136">
         <v>8</v>
       </c>
-      <c r="P136" t="s">
-        <v>789</v>
+      <c r="P136">
+        <v>23</v>
       </c>
       <c r="Q136">
         <v>1152</v>
@@ -13657,7 +13543,7 @@
         <v>3</v>
       </c>
       <c r="Z136" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="137" spans="1:26">
@@ -13706,8 +13592,8 @@
       <c r="O137">
         <v>3</v>
       </c>
-      <c r="P137" t="s">
-        <v>758</v>
+      <c r="P137">
+        <v>28</v>
       </c>
       <c r="Q137">
         <v>2207</v>
@@ -13737,7 +13623,7 @@
         <v>6</v>
       </c>
       <c r="Z137" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="1:26">
@@ -13786,8 +13672,8 @@
       <c r="O138">
         <v>9</v>
       </c>
-      <c r="P138" t="s">
-        <v>762</v>
+      <c r="P138">
+        <v>26</v>
       </c>
       <c r="Q138">
         <v>2110</v>
@@ -13817,7 +13703,7 @@
         <v>7</v>
       </c>
       <c r="Z138" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="139" spans="1:26">
@@ -13866,8 +13752,8 @@
       <c r="O139">
         <v>5</v>
       </c>
-      <c r="P139" t="s">
-        <v>777</v>
+      <c r="P139">
+        <v>24</v>
       </c>
       <c r="Q139">
         <v>2078</v>
@@ -13897,7 +13783,7 @@
         <v>5</v>
       </c>
       <c r="Z139" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="140" spans="1:26">
@@ -13946,8 +13832,8 @@
       <c r="O140">
         <v>9</v>
       </c>
-      <c r="P140" t="s">
-        <v>764</v>
+      <c r="P140">
+        <v>37</v>
       </c>
       <c r="Q140">
         <v>3330</v>
@@ -13977,7 +13863,7 @@
         <v>8</v>
       </c>
       <c r="Z140" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="141" spans="1:26">
@@ -14026,8 +13912,8 @@
       <c r="O141">
         <v>11</v>
       </c>
-      <c r="P141" t="s">
-        <v>771</v>
+      <c r="P141">
+        <v>29</v>
       </c>
       <c r="Q141">
         <v>2271</v>
@@ -14057,7 +13943,7 @@
         <v>12</v>
       </c>
       <c r="Z141" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:26">
@@ -14106,8 +13992,8 @@
       <c r="O142">
         <v>6</v>
       </c>
-      <c r="P142" t="s">
-        <v>771</v>
+      <c r="P142">
+        <v>29</v>
       </c>
       <c r="Q142">
         <v>2461</v>
@@ -14137,7 +14023,7 @@
         <v>9</v>
       </c>
       <c r="Z142" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="143" spans="1:26">
@@ -14186,8 +14072,8 @@
       <c r="O143">
         <v>7</v>
       </c>
-      <c r="P143" t="s">
-        <v>760</v>
+      <c r="P143">
+        <v>32</v>
       </c>
       <c r="Q143">
         <v>2630</v>
@@ -14217,7 +14103,7 @@
         <v>6</v>
       </c>
       <c r="Z143" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="144" spans="1:26">
@@ -14266,8 +14152,8 @@
       <c r="O144">
         <v>5</v>
       </c>
-      <c r="P144" t="s">
-        <v>780</v>
+      <c r="P144">
+        <v>20</v>
       </c>
       <c r="Q144">
         <v>980</v>
@@ -14297,7 +14183,7 @@
         <v>5</v>
       </c>
       <c r="Z144" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="145" spans="1:26">
@@ -14346,8 +14232,8 @@
       <c r="O145">
         <v>0</v>
       </c>
-      <c r="P145" t="s">
-        <v>786</v>
+      <c r="P145">
+        <v>14</v>
       </c>
       <c r="Q145">
         <v>801</v>
@@ -14377,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="Z145" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="146" spans="1:26">
@@ -14426,8 +14312,8 @@
       <c r="O146">
         <v>6</v>
       </c>
-      <c r="P146" t="s">
-        <v>791</v>
+      <c r="P146">
+        <v>27</v>
       </c>
       <c r="Q146">
         <v>2124</v>
@@ -14457,7 +14343,7 @@
         <v>6</v>
       </c>
       <c r="Z146" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="147" spans="1:26">
@@ -14506,8 +14392,8 @@
       <c r="O147">
         <v>2</v>
       </c>
-      <c r="P147" t="s">
-        <v>781</v>
+      <c r="P147">
+        <v>21</v>
       </c>
       <c r="Q147">
         <v>1208</v>
@@ -14537,7 +14423,7 @@
         <v>4</v>
       </c>
       <c r="Z147" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="148" spans="1:26">
@@ -14586,8 +14472,8 @@
       <c r="O148">
         <v>1</v>
       </c>
-      <c r="P148" t="s">
-        <v>777</v>
+      <c r="P148">
+        <v>24</v>
       </c>
       <c r="Q148">
         <v>1458</v>
@@ -14617,7 +14503,7 @@
         <v>2</v>
       </c>
       <c r="Z148" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="149" spans="1:26">
@@ -14666,8 +14552,8 @@
       <c r="O149">
         <v>2</v>
       </c>
-      <c r="P149" t="s">
-        <v>766</v>
+      <c r="P149">
+        <v>13</v>
       </c>
       <c r="Q149">
         <v>1022</v>
@@ -14697,7 +14583,7 @@
         <v>2</v>
       </c>
       <c r="Z149" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="150" spans="1:26">
@@ -14746,8 +14632,8 @@
       <c r="O150">
         <v>2</v>
       </c>
-      <c r="P150" t="s">
-        <v>765</v>
+      <c r="P150">
+        <v>7</v>
       </c>
       <c r="Q150">
         <v>630</v>
@@ -14777,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="Z150" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="151" spans="1:26">
@@ -14826,8 +14712,8 @@
       <c r="O151">
         <v>0</v>
       </c>
-      <c r="P151" t="s">
-        <v>792</v>
+      <c r="P151">
+        <v>9</v>
       </c>
       <c r="Q151">
         <v>250</v>
@@ -14857,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="Z151" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="152" spans="1:26">
@@ -14906,8 +14792,8 @@
       <c r="O152">
         <v>6</v>
       </c>
-      <c r="P152" t="s">
-        <v>761</v>
+      <c r="P152">
+        <v>36</v>
       </c>
       <c r="Q152">
         <v>3101</v>
@@ -14937,7 +14823,7 @@
         <v>10</v>
       </c>
       <c r="Z152" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="153" spans="1:26">
@@ -14986,8 +14872,8 @@
       <c r="O153">
         <v>8</v>
       </c>
-      <c r="P153" t="s">
-        <v>774</v>
+      <c r="P153">
+        <v>15</v>
       </c>
       <c r="Q153">
         <v>871</v>
@@ -15017,7 +14903,7 @@
         <v>3</v>
       </c>
       <c r="Z153" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="154" spans="1:26">
@@ -15066,8 +14952,8 @@
       <c r="O154">
         <v>2</v>
       </c>
-      <c r="P154" t="s">
-        <v>792</v>
+      <c r="P154">
+        <v>9</v>
       </c>
       <c r="Q154">
         <v>557</v>
@@ -15097,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="Z154" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="155" spans="1:26">
@@ -15146,8 +15032,8 @@
       <c r="O155">
         <v>12</v>
       </c>
-      <c r="P155" t="s">
-        <v>759</v>
+      <c r="P155">
+        <v>35</v>
       </c>
       <c r="Q155">
         <v>2638</v>
@@ -15177,7 +15063,7 @@
         <v>3</v>
       </c>
       <c r="Z155" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="156" spans="1:26">
@@ -15226,8 +15112,8 @@
       <c r="O156">
         <v>9</v>
       </c>
-      <c r="P156" t="s">
-        <v>759</v>
+      <c r="P156">
+        <v>35</v>
       </c>
       <c r="Q156">
         <v>2592</v>
@@ -15257,7 +15143,7 @@
         <v>15</v>
       </c>
       <c r="Z156" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="157" spans="1:26">
@@ -15306,8 +15192,8 @@
       <c r="O157">
         <v>3</v>
       </c>
-      <c r="P157" t="s">
-        <v>767</v>
+      <c r="P157">
+        <v>34</v>
       </c>
       <c r="Q157">
         <v>2336</v>
@@ -15337,7 +15223,7 @@
         <v>6</v>
       </c>
       <c r="Z157" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="158" spans="1:26">
@@ -15386,8 +15272,8 @@
       <c r="O158">
         <v>11</v>
       </c>
-      <c r="P158" t="s">
-        <v>767</v>
+      <c r="P158">
+        <v>34</v>
       </c>
       <c r="Q158">
         <v>2630</v>
@@ -15417,7 +15303,7 @@
         <v>11</v>
       </c>
       <c r="Z158" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="159" spans="1:26">
@@ -15466,8 +15352,8 @@
       <c r="O159">
         <v>11</v>
       </c>
-      <c r="P159" t="s">
-        <v>760</v>
+      <c r="P159">
+        <v>32</v>
       </c>
       <c r="Q159">
         <v>2269</v>
@@ -15497,7 +15383,7 @@
         <v>7</v>
       </c>
       <c r="Z159" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="160" spans="1:26">
@@ -15546,8 +15432,8 @@
       <c r="O160">
         <v>8</v>
       </c>
-      <c r="P160" t="s">
-        <v>758</v>
+      <c r="P160">
+        <v>28</v>
       </c>
       <c r="Q160">
         <v>2026</v>
@@ -15577,7 +15463,7 @@
         <v>7</v>
       </c>
       <c r="Z160" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="161" spans="1:26">
@@ -15626,8 +15512,8 @@
       <c r="O161">
         <v>2</v>
       </c>
-      <c r="P161" t="s">
-        <v>791</v>
+      <c r="P161">
+        <v>27</v>
       </c>
       <c r="Q161">
         <v>2067</v>
@@ -15657,7 +15543,7 @@
         <v>7</v>
       </c>
       <c r="Z161" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="162" spans="1:26">
@@ -15706,8 +15592,8 @@
       <c r="O162">
         <v>7</v>
       </c>
-      <c r="P162" t="s">
-        <v>775</v>
+      <c r="P162">
+        <v>25</v>
       </c>
       <c r="Q162">
         <v>1552</v>
@@ -15737,7 +15623,7 @@
         <v>8</v>
       </c>
       <c r="Z162" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="163" spans="1:26">
@@ -15786,8 +15672,8 @@
       <c r="O163">
         <v>6</v>
       </c>
-      <c r="P163" t="s">
-        <v>787</v>
+      <c r="P163">
+        <v>22</v>
       </c>
       <c r="Q163">
         <v>1138</v>
@@ -15817,7 +15703,7 @@
         <v>5</v>
       </c>
       <c r="Z163" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="164" spans="1:26">
@@ -15866,8 +15752,8 @@
       <c r="O164">
         <v>0</v>
       </c>
-      <c r="P164" t="s">
-        <v>772</v>
+      <c r="P164">
+        <v>30</v>
       </c>
       <c r="Q164">
         <v>1706</v>
@@ -15897,7 +15783,7 @@
         <v>6</v>
       </c>
       <c r="Z164" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="165" spans="1:26">
@@ -15946,8 +15832,8 @@
       <c r="O165">
         <v>3</v>
       </c>
-      <c r="P165" t="s">
-        <v>780</v>
+      <c r="P165">
+        <v>20</v>
       </c>
       <c r="Q165">
         <v>1600</v>
@@ -15977,7 +15863,7 @@
         <v>3</v>
       </c>
       <c r="Z165" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="166" spans="1:26">
@@ -16026,8 +15912,8 @@
       <c r="O166">
         <v>0</v>
       </c>
-      <c r="P166" t="s">
-        <v>793</v>
+      <c r="P166">
+        <v>5</v>
       </c>
       <c r="Q166">
         <v>369</v>
@@ -16057,7 +15943,7 @@
         <v>1</v>
       </c>
       <c r="Z166" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="167" spans="1:26">
@@ -16106,8 +15992,8 @@
       <c r="O167">
         <v>10</v>
       </c>
-      <c r="P167" t="s">
-        <v>791</v>
+      <c r="P167">
+        <v>27</v>
       </c>
       <c r="Q167">
         <v>1851</v>
@@ -16137,7 +16023,7 @@
         <v>14</v>
       </c>
       <c r="Z167" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="168" spans="1:26">
@@ -16186,8 +16072,8 @@
       <c r="O168">
         <v>6</v>
       </c>
-      <c r="P168" t="s">
-        <v>761</v>
+      <c r="P168">
+        <v>36</v>
       </c>
       <c r="Q168">
         <v>3196</v>
@@ -16217,7 +16103,7 @@
         <v>16</v>
       </c>
       <c r="Z168" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="169" spans="1:26">
@@ -16266,8 +16152,8 @@
       <c r="O169">
         <v>7</v>
       </c>
-      <c r="P169" t="s">
-        <v>771</v>
+      <c r="P169">
+        <v>29</v>
       </c>
       <c r="Q169">
         <v>2311</v>
@@ -16297,7 +16183,7 @@
         <v>15</v>
       </c>
       <c r="Z169" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="170" spans="1:26">
@@ -16346,8 +16232,8 @@
       <c r="O170">
         <v>5</v>
       </c>
-      <c r="P170" t="s">
-        <v>759</v>
+      <c r="P170">
+        <v>35</v>
       </c>
       <c r="Q170">
         <v>3106</v>
@@ -16377,7 +16263,7 @@
         <v>7</v>
       </c>
       <c r="Z170" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="171" spans="1:26">
@@ -16426,8 +16312,8 @@
       <c r="O171">
         <v>10</v>
       </c>
-      <c r="P171" t="s">
-        <v>762</v>
+      <c r="P171">
+        <v>26</v>
       </c>
       <c r="Q171">
         <v>1253</v>
@@ -16457,7 +16343,7 @@
         <v>1</v>
       </c>
       <c r="Z171" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="172" spans="1:26">
@@ -16506,8 +16392,8 @@
       <c r="O172">
         <v>4</v>
       </c>
-      <c r="P172" t="s">
-        <v>758</v>
+      <c r="P172">
+        <v>28</v>
       </c>
       <c r="Q172">
         <v>2101</v>
@@ -16537,7 +16423,7 @@
         <v>8</v>
       </c>
       <c r="Z172" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="173" spans="1:26">
@@ -16586,8 +16472,8 @@
       <c r="O173">
         <v>4</v>
       </c>
-      <c r="P173" t="s">
-        <v>772</v>
+      <c r="P173">
+        <v>30</v>
       </c>
       <c r="Q173">
         <v>2513</v>
@@ -16617,7 +16503,7 @@
         <v>7</v>
       </c>
       <c r="Z173" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="174" spans="1:26">
@@ -16666,8 +16552,8 @@
       <c r="O174">
         <v>5</v>
       </c>
-      <c r="P174" t="s">
-        <v>781</v>
+      <c r="P174">
+        <v>21</v>
       </c>
       <c r="Q174">
         <v>1278</v>
@@ -16697,7 +16583,7 @@
         <v>5</v>
       </c>
       <c r="Z174" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="175" spans="1:26">
@@ -16746,8 +16632,8 @@
       <c r="O175">
         <v>6</v>
       </c>
-      <c r="P175" t="s">
-        <v>775</v>
+      <c r="P175">
+        <v>25</v>
       </c>
       <c r="Q175">
         <v>1132</v>
@@ -16777,7 +16663,7 @@
         <v>4</v>
       </c>
       <c r="Z175" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="176" spans="1:26">
@@ -16826,8 +16712,8 @@
       <c r="O176">
         <v>6</v>
       </c>
-      <c r="P176" t="s">
-        <v>781</v>
+      <c r="P176">
+        <v>21</v>
       </c>
       <c r="Q176">
         <v>823</v>
@@ -16857,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="Z176" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="177" spans="1:26">
@@ -16906,8 +16792,8 @@
       <c r="O177">
         <v>3</v>
       </c>
-      <c r="P177" t="s">
-        <v>789</v>
+      <c r="P177">
+        <v>23</v>
       </c>
       <c r="Q177">
         <v>1016</v>
@@ -16937,7 +16823,7 @@
         <v>1</v>
       </c>
       <c r="Z177" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="178" spans="1:26">
@@ -16986,8 +16872,8 @@
       <c r="O178">
         <v>2</v>
       </c>
-      <c r="P178" t="s">
-        <v>766</v>
+      <c r="P178">
+        <v>13</v>
       </c>
       <c r="Q178">
         <v>599</v>
@@ -17017,7 +16903,7 @@
         <v>3</v>
       </c>
       <c r="Z178" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="179" spans="1:26">
@@ -17066,8 +16952,8 @@
       <c r="O179">
         <v>0</v>
       </c>
-      <c r="P179" t="s">
-        <v>790</v>
+      <c r="P179">
+        <v>4</v>
       </c>
       <c r="Q179">
         <v>360</v>
@@ -17097,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="Z179" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="180" spans="1:26">
@@ -17146,8 +17032,8 @@
       <c r="O180">
         <v>0</v>
       </c>
-      <c r="P180" t="s">
-        <v>763</v>
+      <c r="P180">
+        <v>1</v>
       </c>
       <c r="Q180">
         <v>35</v>
@@ -17177,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="Z180" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="181" spans="1:26">
@@ -17226,8 +17112,8 @@
       <c r="O181">
         <v>5</v>
       </c>
-      <c r="P181" t="s">
-        <v>772</v>
+      <c r="P181">
+        <v>30</v>
       </c>
       <c r="Q181">
         <v>2688</v>
@@ -17257,7 +17143,7 @@
         <v>10</v>
       </c>
       <c r="Z181" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="182" spans="1:26">
@@ -17306,8 +17192,8 @@
       <c r="O182">
         <v>11</v>
       </c>
-      <c r="P182" t="s">
-        <v>772</v>
+      <c r="P182">
+        <v>30</v>
       </c>
       <c r="Q182">
         <v>2034</v>
@@ -17337,7 +17223,7 @@
         <v>5</v>
       </c>
       <c r="Z182" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="183" spans="1:26">
@@ -17386,8 +17272,8 @@
       <c r="O183">
         <v>11</v>
       </c>
-      <c r="P183" t="s">
-        <v>760</v>
+      <c r="P183">
+        <v>32</v>
       </c>
       <c r="Q183">
         <v>2791</v>
@@ -17417,7 +17303,7 @@
         <v>8</v>
       </c>
       <c r="Z183" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="184" spans="1:26">
@@ -17466,8 +17352,8 @@
       <c r="O184">
         <v>11</v>
       </c>
-      <c r="P184" t="s">
-        <v>780</v>
+      <c r="P184">
+        <v>20</v>
       </c>
       <c r="Q184">
         <v>1447</v>
@@ -17497,7 +17383,7 @@
         <v>9</v>
       </c>
       <c r="Z184" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="185" spans="1:26">
@@ -17546,8 +17432,8 @@
       <c r="O185">
         <v>8</v>
       </c>
-      <c r="P185" t="s">
-        <v>789</v>
+      <c r="P185">
+        <v>23</v>
       </c>
       <c r="Q185">
         <v>1626</v>
@@ -17577,7 +17463,7 @@
         <v>10</v>
       </c>
       <c r="Z185" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="186" spans="1:26">
@@ -17626,8 +17512,8 @@
       <c r="O186">
         <v>3</v>
       </c>
-      <c r="P186" t="s">
-        <v>767</v>
+      <c r="P186">
+        <v>34</v>
       </c>
       <c r="Q186">
         <v>2715</v>
@@ -17657,7 +17543,7 @@
         <v>10</v>
       </c>
       <c r="Z186" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="187" spans="1:26">
@@ -17706,8 +17592,8 @@
       <c r="O187">
         <v>2</v>
       </c>
-      <c r="P187" t="s">
-        <v>787</v>
+      <c r="P187">
+        <v>22</v>
       </c>
       <c r="Q187">
         <v>1282</v>
@@ -17737,7 +17623,7 @@
         <v>6</v>
       </c>
       <c r="Z187" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="188" spans="1:26">
@@ -17786,8 +17672,8 @@
       <c r="O188">
         <v>8</v>
       </c>
-      <c r="P188" t="s">
-        <v>762</v>
+      <c r="P188">
+        <v>26</v>
       </c>
       <c r="Q188">
         <v>1127</v>
@@ -17817,7 +17703,7 @@
         <v>4</v>
       </c>
       <c r="Z188" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="189" spans="1:26">
@@ -17866,8 +17752,8 @@
       <c r="O189">
         <v>3</v>
       </c>
-      <c r="P189" t="s">
-        <v>789</v>
+      <c r="P189">
+        <v>23</v>
       </c>
       <c r="Q189">
         <v>1409</v>
@@ -17897,7 +17783,7 @@
         <v>4</v>
       </c>
       <c r="Z189" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="190" spans="1:26">
@@ -17946,8 +17832,8 @@
       <c r="O190">
         <v>3</v>
       </c>
-      <c r="P190" t="s">
-        <v>780</v>
+      <c r="P190">
+        <v>20</v>
       </c>
       <c r="Q190">
         <v>733</v>
@@ -17977,7 +17863,7 @@
         <v>1</v>
       </c>
       <c r="Z190" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="191" spans="1:26">
@@ -18026,8 +17912,8 @@
       <c r="O191">
         <v>1</v>
       </c>
-      <c r="P191" t="s">
-        <v>777</v>
+      <c r="P191">
+        <v>24</v>
       </c>
       <c r="Q191">
         <v>844</v>
@@ -18057,7 +17943,7 @@
         <v>4</v>
       </c>
       <c r="Z191" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:26">
@@ -18106,8 +17992,8 @@
       <c r="O192">
         <v>0</v>
       </c>
-      <c r="P192" t="s">
-        <v>765</v>
+      <c r="P192">
+        <v>7</v>
       </c>
       <c r="Q192">
         <v>203</v>
@@ -18137,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="Z192" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="193" spans="1:26">
@@ -18186,8 +18072,8 @@
       <c r="O193">
         <v>4</v>
       </c>
-      <c r="P193" t="s">
-        <v>767</v>
+      <c r="P193">
+        <v>34</v>
       </c>
       <c r="Q193">
         <v>2775</v>
@@ -18217,7 +18103,7 @@
         <v>9</v>
       </c>
       <c r="Z193" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="194" spans="1:26">
@@ -18266,8 +18152,8 @@
       <c r="O194">
         <v>3</v>
       </c>
-      <c r="P194" t="s">
-        <v>771</v>
+      <c r="P194">
+        <v>29</v>
       </c>
       <c r="Q194">
         <v>2537</v>
@@ -18297,7 +18183,7 @@
         <v>12</v>
       </c>
       <c r="Z194" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="195" spans="1:26">
@@ -18346,8 +18232,8 @@
       <c r="O195">
         <v>3</v>
       </c>
-      <c r="P195" t="s">
-        <v>771</v>
+      <c r="P195">
+        <v>29</v>
       </c>
       <c r="Q195">
         <v>2037</v>
@@ -18377,7 +18263,7 @@
         <v>6</v>
       </c>
       <c r="Z195" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="196" spans="1:26">
@@ -18426,8 +18312,8 @@
       <c r="O196">
         <v>1</v>
       </c>
-      <c r="P196" t="s">
-        <v>777</v>
+      <c r="P196">
+        <v>24</v>
       </c>
       <c r="Q196">
         <v>1852</v>
@@ -18457,7 +18343,7 @@
         <v>2</v>
       </c>
       <c r="Z196" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="197" spans="1:26">
@@ -18506,8 +18392,8 @@
       <c r="O197">
         <v>1</v>
       </c>
-      <c r="P197" t="s">
-        <v>780</v>
+      <c r="P197">
+        <v>20</v>
       </c>
       <c r="Q197">
         <v>1594</v>
@@ -18537,7 +18423,7 @@
         <v>3</v>
       </c>
       <c r="Z197" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="198" spans="1:26">
@@ -18586,8 +18472,8 @@
       <c r="O198">
         <v>1</v>
       </c>
-      <c r="P198" t="s">
-        <v>774</v>
+      <c r="P198">
+        <v>15</v>
       </c>
       <c r="Q198">
         <v>550</v>
@@ -18617,7 +18503,7 @@
         <v>2</v>
       </c>
       <c r="Z198" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="199" spans="1:26">
@@ -18666,8 +18552,8 @@
       <c r="O199">
         <v>0</v>
       </c>
-      <c r="P199" t="s">
-        <v>774</v>
+      <c r="P199">
+        <v>15</v>
       </c>
       <c r="Q199">
         <v>767</v>
@@ -18697,7 +18583,7 @@
         <v>1</v>
       </c>
       <c r="Z199" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="200" spans="1:26">
@@ -18746,8 +18632,8 @@
       <c r="O200">
         <v>0</v>
       </c>
-      <c r="P200" t="s">
-        <v>794</v>
+      <c r="P200">
+        <v>12</v>
       </c>
       <c r="Q200">
         <v>291</v>
@@ -18777,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="Z200" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="201" spans="1:26">
@@ -18826,8 +18712,8 @@
       <c r="O201">
         <v>0</v>
       </c>
-      <c r="P201" t="s">
-        <v>790</v>
+      <c r="P201">
+        <v>4</v>
       </c>
       <c r="Q201">
         <v>360</v>
@@ -18857,7 +18743,7 @@
         <v>1</v>
       </c>
       <c r="Z201" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="202" spans="1:26">
@@ -18906,8 +18792,8 @@
       <c r="O202">
         <v>0</v>
       </c>
-      <c r="P202" t="s">
-        <v>782</v>
+      <c r="P202">
+        <v>8</v>
       </c>
       <c r="Q202">
         <v>34</v>
@@ -18937,7 +18823,7 @@
         <v>0</v>
       </c>
       <c r="Z202" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="203" spans="1:26">
@@ -18986,8 +18872,8 @@
       <c r="O203">
         <v>0</v>
       </c>
-      <c r="P203" t="s">
-        <v>763</v>
+      <c r="P203">
+        <v>1</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -19017,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="Z203" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="204" spans="1:26">
@@ -19066,8 +18952,8 @@
       <c r="O204">
         <v>8</v>
       </c>
-      <c r="P204" t="s">
-        <v>759</v>
+      <c r="P204">
+        <v>35</v>
       </c>
       <c r="Q204">
         <v>1887</v>
@@ -19097,7 +18983,7 @@
         <v>7</v>
       </c>
       <c r="Z204" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="205" spans="1:26">
@@ -19146,8 +19032,8 @@
       <c r="O205">
         <v>15</v>
       </c>
-      <c r="P205" t="s">
-        <v>785</v>
+      <c r="P205">
+        <v>31</v>
       </c>
       <c r="Q205">
         <v>2629</v>
@@ -19177,7 +19063,7 @@
         <v>7</v>
       </c>
       <c r="Z205" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="206" spans="1:26">
@@ -19226,8 +19112,8 @@
       <c r="O206">
         <v>10</v>
       </c>
-      <c r="P206" t="s">
-        <v>775</v>
+      <c r="P206">
+        <v>25</v>
       </c>
       <c r="Q206">
         <v>2158</v>
@@ -19257,7 +19143,7 @@
         <v>6</v>
       </c>
       <c r="Z206" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="207" spans="1:26">
@@ -19306,8 +19192,8 @@
       <c r="O207">
         <v>11</v>
       </c>
-      <c r="P207" t="s">
-        <v>785</v>
+      <c r="P207">
+        <v>31</v>
       </c>
       <c r="Q207">
         <v>2263</v>
@@ -19337,7 +19223,7 @@
         <v>5</v>
       </c>
       <c r="Z207" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="208" spans="1:26">
@@ -19386,8 +19272,8 @@
       <c r="O208">
         <v>7</v>
       </c>
-      <c r="P208" t="s">
-        <v>759</v>
+      <c r="P208">
+        <v>35</v>
       </c>
       <c r="Q208">
         <v>2554</v>
@@ -19417,7 +19303,7 @@
         <v>7</v>
       </c>
       <c r="Z208" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="209" spans="1:26">
@@ -19466,8 +19352,8 @@
       <c r="O209">
         <v>6</v>
       </c>
-      <c r="P209" t="s">
-        <v>758</v>
+      <c r="P209">
+        <v>28</v>
       </c>
       <c r="Q209">
         <v>2497</v>
@@ -19497,7 +19383,7 @@
         <v>5</v>
       </c>
       <c r="Z209" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="210" spans="1:26">
@@ -19546,8 +19432,8 @@
       <c r="O210">
         <v>0</v>
       </c>
-      <c r="P210" t="s">
-        <v>786</v>
+      <c r="P210">
+        <v>14</v>
       </c>
       <c r="Q210">
         <v>919</v>
@@ -19577,7 +19463,7 @@
         <v>5</v>
       </c>
       <c r="Z210" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="211" spans="1:26">
@@ -19626,8 +19512,8 @@
       <c r="O211">
         <v>1</v>
       </c>
-      <c r="P211" t="s">
-        <v>769</v>
+      <c r="P211">
+        <v>19</v>
       </c>
       <c r="Q211">
         <v>1095</v>
@@ -19657,7 +19543,7 @@
         <v>2</v>
       </c>
       <c r="Z211" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="212" spans="1:26">
@@ -19706,8 +19592,8 @@
       <c r="O212">
         <v>0</v>
       </c>
-      <c r="P212" t="s">
-        <v>786</v>
+      <c r="P212">
+        <v>14</v>
       </c>
       <c r="Q212">
         <v>1032</v>
@@ -19737,7 +19623,7 @@
         <v>2</v>
       </c>
       <c r="Z212" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="213" spans="1:26">
@@ -19786,8 +19672,8 @@
       <c r="O213">
         <v>0</v>
       </c>
-      <c r="P213" t="s">
-        <v>770</v>
+      <c r="P213">
+        <v>6</v>
       </c>
       <c r="Q213">
         <v>448</v>
@@ -19817,7 +19703,7 @@
         <v>1</v>
       </c>
       <c r="Z213" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="214" spans="1:26">
@@ -19866,8 +19752,8 @@
       <c r="O214">
         <v>0</v>
       </c>
-      <c r="P214" t="s">
-        <v>788</v>
+      <c r="P214">
+        <v>2</v>
       </c>
       <c r="Q214">
         <v>180</v>
@@ -19897,7 +19783,7 @@
         <v>1</v>
       </c>
       <c r="Z214" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="215" spans="1:26">
@@ -19946,8 +19832,8 @@
       <c r="O215">
         <v>0</v>
       </c>
-      <c r="P215" t="s">
-        <v>783</v>
+      <c r="P215">
+        <v>3</v>
       </c>
       <c r="Q215">
         <v>197</v>
@@ -19977,7 +19863,7 @@
         <v>1</v>
       </c>
       <c r="Z215" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="216" spans="1:26">
@@ -20026,8 +19912,8 @@
       <c r="O216">
         <v>1</v>
       </c>
-      <c r="P216" t="s">
-        <v>767</v>
+      <c r="P216">
+        <v>34</v>
       </c>
       <c r="Q216">
         <v>2752</v>
@@ -20057,7 +19943,7 @@
         <v>6</v>
       </c>
       <c r="Z216" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="217" spans="1:26">
@@ -20106,8 +19992,8 @@
       <c r="O217">
         <v>9</v>
       </c>
-      <c r="P217" t="s">
-        <v>789</v>
+      <c r="P217">
+        <v>23</v>
       </c>
       <c r="Q217">
         <v>1311</v>
@@ -20137,7 +20023,7 @@
         <v>7</v>
       </c>
       <c r="Z217" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="218" spans="1:26">
@@ -20186,8 +20072,8 @@
       <c r="O218">
         <v>4</v>
       </c>
-      <c r="P218" t="s">
-        <v>777</v>
+      <c r="P218">
+        <v>24</v>
       </c>
       <c r="Q218">
         <v>2027</v>
@@ -20217,7 +20103,7 @@
         <v>10</v>
       </c>
       <c r="Z218" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="219" spans="1:26">
@@ -20266,8 +20152,8 @@
       <c r="O219">
         <v>2</v>
       </c>
-      <c r="P219" t="s">
-        <v>762</v>
+      <c r="P219">
+        <v>26</v>
       </c>
       <c r="Q219">
         <v>1475</v>
@@ -20297,7 +20183,7 @@
         <v>9</v>
       </c>
       <c r="Z219" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="220" spans="1:26">
@@ -20346,8 +20232,8 @@
       <c r="O220">
         <v>3</v>
       </c>
-      <c r="P220" t="s">
-        <v>791</v>
+      <c r="P220">
+        <v>27</v>
       </c>
       <c r="Q220">
         <v>2327</v>
@@ -20377,7 +20263,7 @@
         <v>6</v>
       </c>
       <c r="Z220" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="221" spans="1:26">
@@ -20426,8 +20312,8 @@
       <c r="O221">
         <v>3</v>
       </c>
-      <c r="P221" t="s">
-        <v>774</v>
+      <c r="P221">
+        <v>15</v>
       </c>
       <c r="Q221">
         <v>1046</v>
@@ -20457,7 +20343,7 @@
         <v>6</v>
       </c>
       <c r="Z221" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="222" spans="1:26">
@@ -20506,8 +20392,8 @@
       <c r="O222">
         <v>1</v>
       </c>
-      <c r="P222" t="s">
-        <v>781</v>
+      <c r="P222">
+        <v>21</v>
       </c>
       <c r="Q222">
         <v>985</v>
@@ -20537,7 +20423,7 @@
         <v>3</v>
       </c>
       <c r="Z222" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="223" spans="1:26">
@@ -20586,8 +20472,8 @@
       <c r="O223">
         <v>3</v>
       </c>
-      <c r="P223" t="s">
-        <v>786</v>
+      <c r="P223">
+        <v>14</v>
       </c>
       <c r="Q223">
         <v>990</v>
@@ -20617,7 +20503,7 @@
         <v>1</v>
       </c>
       <c r="Z223" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="224" spans="1:26">
@@ -20666,8 +20552,8 @@
       <c r="O224">
         <v>0</v>
       </c>
-      <c r="P224" t="s">
-        <v>778</v>
+      <c r="P224">
+        <v>18</v>
       </c>
       <c r="Q224">
         <v>1346</v>
@@ -20697,7 +20583,7 @@
         <v>8</v>
       </c>
       <c r="Z224" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="225" spans="1:26">
@@ -20746,8 +20632,8 @@
       <c r="O225">
         <v>0</v>
       </c>
-      <c r="P225" t="s">
-        <v>786</v>
+      <c r="P225">
+        <v>14</v>
       </c>
       <c r="Q225">
         <v>614</v>
@@ -20777,7 +20663,7 @@
         <v>0</v>
       </c>
       <c r="Z225" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="1:26">
@@ -20826,8 +20712,8 @@
       <c r="O226">
         <v>0</v>
       </c>
-      <c r="P226" t="s">
-        <v>790</v>
+      <c r="P226">
+        <v>4</v>
       </c>
       <c r="Q226">
         <v>179</v>
@@ -20857,7 +20743,7 @@
         <v>1</v>
       </c>
       <c r="Z226" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="227" spans="1:26">
@@ -20906,8 +20792,8 @@
       <c r="O227">
         <v>0</v>
       </c>
-      <c r="P227" t="s">
-        <v>783</v>
+      <c r="P227">
+        <v>3</v>
       </c>
       <c r="Q227">
         <v>87</v>
@@ -20937,7 +20823,7 @@
         <v>0</v>
       </c>
       <c r="Z227" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="228" spans="1:26">
@@ -20986,8 +20872,8 @@
       <c r="O228">
         <v>5</v>
       </c>
-      <c r="P228" t="s">
-        <v>767</v>
+      <c r="P228">
+        <v>34</v>
       </c>
       <c r="Q228">
         <v>2874</v>
@@ -21017,7 +20903,7 @@
         <v>8</v>
       </c>
       <c r="Z228" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="229" spans="1:26">
@@ -21066,8 +20952,8 @@
       <c r="O229">
         <v>13</v>
       </c>
-      <c r="P229" t="s">
-        <v>775</v>
+      <c r="P229">
+        <v>25</v>
       </c>
       <c r="Q229">
         <v>1469</v>
@@ -21097,7 +20983,7 @@
         <v>5</v>
       </c>
       <c r="Z229" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="230" spans="1:26">
@@ -21146,8 +21032,8 @@
       <c r="O230">
         <v>11</v>
       </c>
-      <c r="P230" t="s">
-        <v>772</v>
+      <c r="P230">
+        <v>30</v>
       </c>
       <c r="Q230">
         <v>1811</v>
@@ -21177,7 +21063,7 @@
         <v>7</v>
       </c>
       <c r="Z230" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="231" spans="1:26">
@@ -21226,8 +21112,8 @@
       <c r="O231">
         <v>3</v>
       </c>
-      <c r="P231" t="s">
-        <v>773</v>
+      <c r="P231">
+        <v>17</v>
       </c>
       <c r="Q231">
         <v>1530</v>
@@ -21257,7 +21143,7 @@
         <v>5</v>
       </c>
       <c r="Z231" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="232" spans="1:26">
@@ -21306,8 +21192,8 @@
       <c r="O232">
         <v>4</v>
       </c>
-      <c r="P232" t="s">
-        <v>773</v>
+      <c r="P232">
+        <v>17</v>
       </c>
       <c r="Q232">
         <v>1360</v>
@@ -21337,7 +21223,7 @@
         <v>9</v>
       </c>
       <c r="Z232" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="233" spans="1:26">
@@ -21386,8 +21272,8 @@
       <c r="O233">
         <v>1</v>
       </c>
-      <c r="P233" t="s">
-        <v>780</v>
+      <c r="P233">
+        <v>20</v>
       </c>
       <c r="Q233">
         <v>681</v>
@@ -21417,7 +21303,7 @@
         <v>2</v>
       </c>
       <c r="Z233" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="234" spans="1:26">
@@ -21466,8 +21352,8 @@
       <c r="O234">
         <v>3</v>
       </c>
-      <c r="P234" t="s">
-        <v>766</v>
+      <c r="P234">
+        <v>13</v>
       </c>
       <c r="Q234">
         <v>1054</v>
@@ -21497,7 +21383,7 @@
         <v>3</v>
       </c>
       <c r="Z234" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="235" spans="1:26">
@@ -21546,8 +21432,8 @@
       <c r="O235">
         <v>3</v>
       </c>
-      <c r="P235" t="s">
-        <v>780</v>
+      <c r="P235">
+        <v>20</v>
       </c>
       <c r="Q235">
         <v>1793</v>
@@ -21577,7 +21463,7 @@
         <v>3</v>
       </c>
       <c r="Z235" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="236" spans="1:26">
@@ -21626,8 +21512,8 @@
       <c r="O236">
         <v>3</v>
       </c>
-      <c r="P236" t="s">
-        <v>792</v>
+      <c r="P236">
+        <v>9</v>
       </c>
       <c r="Q236">
         <v>765</v>
@@ -21657,7 +21543,7 @@
         <v>1</v>
       </c>
       <c r="Z236" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="237" spans="1:26">
@@ -21706,8 +21592,8 @@
       <c r="O237">
         <v>0</v>
       </c>
-      <c r="P237" t="s">
-        <v>790</v>
+      <c r="P237">
+        <v>4</v>
       </c>
       <c r="Q237">
         <v>161</v>
@@ -21737,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="Z237" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="238" spans="1:26">
@@ -21786,8 +21672,8 @@
       <c r="O238">
         <v>0</v>
       </c>
-      <c r="P238" t="s">
-        <v>763</v>
+      <c r="P238">
+        <v>1</v>
       </c>
       <c r="Q238">
         <v>8</v>
@@ -21817,7 +21703,7 @@
         <v>0</v>
       </c>
       <c r="Z238" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="239" spans="1:26">
@@ -21866,8 +21752,8 @@
       <c r="O239">
         <v>0</v>
       </c>
-      <c r="P239" t="s">
-        <v>763</v>
+      <c r="P239">
+        <v>1</v>
       </c>
       <c r="Q239">
         <v>3</v>
@@ -21897,7 +21783,7 @@
         <v>0</v>
       </c>
       <c r="Z239" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="240" spans="1:26">
@@ -21946,8 +21832,8 @@
       <c r="O240">
         <v>19</v>
       </c>
-      <c r="P240" t="s">
-        <v>772</v>
+      <c r="P240">
+        <v>30</v>
       </c>
       <c r="Q240">
         <v>2522</v>
@@ -21977,7 +21863,7 @@
         <v>7</v>
       </c>
       <c r="Z240" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
     </row>
     <row r="241" spans="1:26">
@@ -22026,8 +21912,8 @@
       <c r="O241">
         <v>5</v>
       </c>
-      <c r="P241" t="s">
-        <v>759</v>
+      <c r="P241">
+        <v>35</v>
       </c>
       <c r="Q241">
         <v>3054</v>
@@ -22057,7 +21943,7 @@
         <v>8</v>
       </c>
       <c r="Z241" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="242" spans="1:26">
@@ -22106,8 +21992,8 @@
       <c r="O242">
         <v>6</v>
       </c>
-      <c r="P242" t="s">
-        <v>772</v>
+      <c r="P242">
+        <v>30</v>
       </c>
       <c r="Q242">
         <v>1268</v>
@@ -22137,7 +22023,7 @@
         <v>3</v>
       </c>
       <c r="Z242" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="243" spans="1:26">
@@ -22186,8 +22072,8 @@
       <c r="O243">
         <v>8</v>
       </c>
-      <c r="P243" t="s">
-        <v>772</v>
+      <c r="P243">
+        <v>30</v>
       </c>
       <c r="Q243">
         <v>1777</v>
@@ -22217,7 +22103,7 @@
         <v>4</v>
       </c>
       <c r="Z243" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="244" spans="1:26">
@@ -22266,8 +22152,8 @@
       <c r="O244">
         <v>4</v>
       </c>
-      <c r="P244" t="s">
-        <v>767</v>
+      <c r="P244">
+        <v>34</v>
       </c>
       <c r="Q244">
         <v>1763</v>
@@ -22297,7 +22183,7 @@
         <v>8</v>
       </c>
       <c r="Z244" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="245" spans="1:26">
@@ -22346,8 +22232,8 @@
       <c r="O245">
         <v>3</v>
       </c>
-      <c r="P245" t="s">
-        <v>785</v>
+      <c r="P245">
+        <v>31</v>
       </c>
       <c r="Q245">
         <v>2012</v>
@@ -22377,7 +22263,7 @@
         <v>9</v>
       </c>
       <c r="Z245" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="246" spans="1:26">
@@ -22426,8 +22312,8 @@
       <c r="O246">
         <v>6</v>
       </c>
-      <c r="P246" t="s">
-        <v>758</v>
+      <c r="P246">
+        <v>28</v>
       </c>
       <c r="Q246">
         <v>2341</v>
@@ -22457,7 +22343,7 @@
         <v>5</v>
       </c>
       <c r="Z246" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="247" spans="1:26">
@@ -22506,8 +22392,8 @@
       <c r="O247">
         <v>2</v>
       </c>
-      <c r="P247" t="s">
-        <v>772</v>
+      <c r="P247">
+        <v>30</v>
       </c>
       <c r="Q247">
         <v>2386</v>
@@ -22537,7 +22423,7 @@
         <v>8</v>
       </c>
       <c r="Z247" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="248" spans="1:26">
@@ -22586,8 +22472,8 @@
       <c r="O248">
         <v>4</v>
       </c>
-      <c r="P248" t="s">
-        <v>758</v>
+      <c r="P248">
+        <v>28</v>
       </c>
       <c r="Q248">
         <v>2118</v>
@@ -22617,7 +22503,7 @@
         <v>5</v>
       </c>
       <c r="Z248" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="249" spans="1:26">
@@ -22666,8 +22552,8 @@
       <c r="O249">
         <v>1</v>
       </c>
-      <c r="P249" t="s">
-        <v>769</v>
+      <c r="P249">
+        <v>19</v>
       </c>
       <c r="Q249">
         <v>1670</v>
@@ -22697,7 +22583,7 @@
         <v>5</v>
       </c>
       <c r="Z249" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="250" spans="1:26">
@@ -22746,8 +22632,8 @@
       <c r="O250">
         <v>3</v>
       </c>
-      <c r="P250" t="s">
-        <v>781</v>
+      <c r="P250">
+        <v>21</v>
       </c>
       <c r="Q250">
         <v>1481</v>
@@ -22777,7 +22663,7 @@
         <v>3</v>
       </c>
       <c r="Z250" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="251" spans="1:26">
@@ -22826,8 +22712,8 @@
       <c r="O251">
         <v>3</v>
       </c>
-      <c r="P251" t="s">
-        <v>778</v>
+      <c r="P251">
+        <v>18</v>
       </c>
       <c r="Q251">
         <v>1434</v>
@@ -22857,7 +22743,7 @@
         <v>4</v>
       </c>
       <c r="Z251" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="252" spans="1:26">
@@ -22906,8 +22792,8 @@
       <c r="O252">
         <v>2</v>
       </c>
-      <c r="P252" t="s">
-        <v>766</v>
+      <c r="P252">
+        <v>13</v>
       </c>
       <c r="Q252">
         <v>999</v>
@@ -22937,7 +22823,7 @@
         <v>4</v>
       </c>
       <c r="Z252" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="253" spans="1:26">
@@ -22986,8 +22872,8 @@
       <c r="O253">
         <v>0</v>
       </c>
-      <c r="P253" t="s">
-        <v>769</v>
+      <c r="P253">
+        <v>19</v>
       </c>
       <c r="Q253">
         <v>1617</v>
@@ -23017,7 +22903,7 @@
         <v>5</v>
       </c>
       <c r="Z253" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="254" spans="1:26">
@@ -23066,8 +22952,8 @@
       <c r="O254">
         <v>0</v>
       </c>
-      <c r="P254" t="s">
-        <v>778</v>
+      <c r="P254">
+        <v>18</v>
       </c>
       <c r="Q254">
         <v>1346</v>
@@ -23097,7 +22983,7 @@
         <v>2</v>
       </c>
       <c r="Z254" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="255" spans="1:26">
@@ -23146,8 +23032,8 @@
       <c r="O255">
         <v>0</v>
       </c>
-      <c r="P255" t="s">
-        <v>787</v>
+      <c r="P255">
+        <v>22</v>
       </c>
       <c r="Q255">
         <v>1526</v>
@@ -23177,7 +23063,7 @@
         <v>2</v>
       </c>
       <c r="Z255" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="256" spans="1:26">
@@ -23226,8 +23112,8 @@
       <c r="O256">
         <v>2</v>
       </c>
-      <c r="P256" t="s">
-        <v>787</v>
+      <c r="P256">
+        <v>22</v>
       </c>
       <c r="Q256">
         <v>898</v>
@@ -23257,7 +23143,7 @@
         <v>2</v>
       </c>
       <c r="Z256" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="257" spans="1:26">
@@ -23306,8 +23192,8 @@
       <c r="O257">
         <v>0</v>
       </c>
-      <c r="P257" t="s">
-        <v>769</v>
+      <c r="P257">
+        <v>19</v>
       </c>
       <c r="Q257">
         <v>1129</v>
@@ -23337,7 +23223,7 @@
         <v>7</v>
       </c>
       <c r="Z257" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="258" spans="1:26">
@@ -23386,8 +23272,8 @@
       <c r="O258">
         <v>1</v>
       </c>
-      <c r="P258" t="s">
-        <v>790</v>
+      <c r="P258">
+        <v>4</v>
       </c>
       <c r="Q258">
         <v>360</v>
@@ -23417,7 +23303,7 @@
         <v>2</v>
       </c>
       <c r="Z258" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="259" spans="1:26">
@@ -23466,8 +23352,8 @@
       <c r="O259">
         <v>0</v>
       </c>
-      <c r="P259" t="s">
-        <v>776</v>
+      <c r="P259">
+        <v>10</v>
       </c>
       <c r="Q259">
         <v>900</v>
@@ -23497,7 +23383,7 @@
         <v>1</v>
       </c>
       <c r="Z259" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="260" spans="1:26">
@@ -23546,8 +23432,8 @@
       <c r="O260">
         <v>0</v>
       </c>
-      <c r="P260" t="s">
-        <v>776</v>
+      <c r="P260">
+        <v>10</v>
       </c>
       <c r="Q260">
         <v>349</v>
@@ -23577,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="Z260" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="261" spans="1:26">
@@ -23626,8 +23512,8 @@
       <c r="O261">
         <v>0</v>
       </c>
-      <c r="P261" t="s">
-        <v>788</v>
+      <c r="P261">
+        <v>2</v>
       </c>
       <c r="Q261">
         <v>148</v>
@@ -23657,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="Z261" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="262" spans="1:26">
@@ -23706,8 +23592,8 @@
       <c r="O262">
         <v>0</v>
       </c>
-      <c r="P262" t="s">
-        <v>763</v>
+      <c r="P262">
+        <v>1</v>
       </c>
       <c r="Q262">
         <v>23</v>
@@ -23737,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="Z262" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="263" spans="1:26">
@@ -23786,8 +23672,8 @@
       <c r="O263">
         <v>8</v>
       </c>
-      <c r="P263" t="s">
-        <v>779</v>
+      <c r="P263">
+        <v>33</v>
       </c>
       <c r="Q263">
         <v>2112</v>
@@ -23817,7 +23703,7 @@
         <v>6</v>
       </c>
       <c r="Z263" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="264" spans="1:26">
@@ -23866,8 +23752,8 @@
       <c r="O264">
         <v>8</v>
       </c>
-      <c r="P264" t="s">
-        <v>772</v>
+      <c r="P264">
+        <v>30</v>
       </c>
       <c r="Q264">
         <v>2536</v>
@@ -23897,7 +23783,7 @@
         <v>5</v>
       </c>
       <c r="Z264" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="265" spans="1:26">
@@ -23946,8 +23832,8 @@
       <c r="O265">
         <v>7</v>
       </c>
-      <c r="P265" t="s">
-        <v>771</v>
+      <c r="P265">
+        <v>29</v>
       </c>
       <c r="Q265">
         <v>2033</v>
@@ -23977,7 +23863,7 @@
         <v>8</v>
       </c>
       <c r="Z265" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="266" spans="1:26">
@@ -24026,8 +23912,8 @@
       <c r="O266">
         <v>2</v>
       </c>
-      <c r="P266" t="s">
-        <v>760</v>
+      <c r="P266">
+        <v>32</v>
       </c>
       <c r="Q266">
         <v>1840</v>
@@ -24057,7 +23943,7 @@
         <v>8</v>
       </c>
       <c r="Z266" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="267" spans="1:26">
@@ -24106,8 +23992,8 @@
       <c r="O267">
         <v>4</v>
       </c>
-      <c r="P267" t="s">
-        <v>771</v>
+      <c r="P267">
+        <v>29</v>
       </c>
       <c r="Q267">
         <v>2477</v>
@@ -24137,7 +24023,7 @@
         <v>8</v>
       </c>
       <c r="Z267" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="268" spans="1:26">
@@ -24186,8 +24072,8 @@
       <c r="O268">
         <v>8</v>
       </c>
-      <c r="P268" t="s">
-        <v>791</v>
+      <c r="P268">
+        <v>27</v>
       </c>
       <c r="Q268">
         <v>1459</v>
@@ -24217,7 +24103,7 @@
         <v>5</v>
       </c>
       <c r="Z268" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="269" spans="1:26">
@@ -24266,8 +24152,8 @@
       <c r="O269">
         <v>5</v>
       </c>
-      <c r="P269" t="s">
-        <v>772</v>
+      <c r="P269">
+        <v>30</v>
       </c>
       <c r="Q269">
         <v>1945</v>
@@ -24297,7 +24183,7 @@
         <v>5</v>
       </c>
       <c r="Z269" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="270" spans="1:26">
@@ -24346,8 +24232,8 @@
       <c r="O270">
         <v>2</v>
       </c>
-      <c r="P270" t="s">
-        <v>758</v>
+      <c r="P270">
+        <v>28</v>
       </c>
       <c r="Q270">
         <v>2486</v>
@@ -24377,7 +24263,7 @@
         <v>9</v>
       </c>
       <c r="Z270" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="271" spans="1:26">
@@ -24426,8 +24312,8 @@
       <c r="O271">
         <v>6</v>
       </c>
-      <c r="P271" t="s">
-        <v>781</v>
+      <c r="P271">
+        <v>21</v>
       </c>
       <c r="Q271">
         <v>1658</v>
@@ -24457,7 +24343,7 @@
         <v>5</v>
       </c>
       <c r="Z271" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="272" spans="1:26">
@@ -24506,8 +24392,8 @@
       <c r="O272">
         <v>4</v>
       </c>
-      <c r="P272" t="s">
-        <v>758</v>
+      <c r="P272">
+        <v>28</v>
       </c>
       <c r="Q272">
         <v>2353</v>
@@ -24537,7 +24423,7 @@
         <v>6</v>
       </c>
       <c r="Z272" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="273" spans="1:26">
@@ -24586,8 +24472,8 @@
       <c r="O273">
         <v>5</v>
       </c>
-      <c r="P273" t="s">
-        <v>781</v>
+      <c r="P273">
+        <v>21</v>
       </c>
       <c r="Q273">
         <v>1814</v>
@@ -24617,7 +24503,7 @@
         <v>5</v>
       </c>
       <c r="Z273" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="274" spans="1:26">
@@ -24666,8 +24552,8 @@
       <c r="O274">
         <v>4</v>
       </c>
-      <c r="P274" t="s">
-        <v>795</v>
+      <c r="P274">
+        <v>16</v>
       </c>
       <c r="Q274">
         <v>1351</v>
@@ -24697,7 +24583,7 @@
         <v>6</v>
       </c>
       <c r="Z274" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="275" spans="1:26">
@@ -24746,8 +24632,8 @@
       <c r="O275">
         <v>5</v>
       </c>
-      <c r="P275" t="s">
-        <v>778</v>
+      <c r="P275">
+        <v>18</v>
       </c>
       <c r="Q275">
         <v>990</v>
@@ -24777,7 +24663,7 @@
         <v>3</v>
       </c>
       <c r="Z275" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="276" spans="1:26">
@@ -24826,8 +24712,8 @@
       <c r="O276">
         <v>4</v>
       </c>
-      <c r="P276" t="s">
-        <v>767</v>
+      <c r="P276">
+        <v>34</v>
       </c>
       <c r="Q276">
         <v>2971</v>
@@ -24857,7 +24743,7 @@
         <v>6</v>
       </c>
       <c r="Z276" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="277" spans="1:26">
@@ -24906,8 +24792,8 @@
       <c r="O277">
         <v>2</v>
       </c>
-      <c r="P277" t="s">
-        <v>762</v>
+      <c r="P277">
+        <v>26</v>
       </c>
       <c r="Q277">
         <v>2055</v>
@@ -24937,7 +24823,7 @@
         <v>3</v>
       </c>
       <c r="Z277" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="278" spans="1:26">
@@ -24986,8 +24872,8 @@
       <c r="O278">
         <v>1</v>
       </c>
-      <c r="P278" t="s">
-        <v>789</v>
+      <c r="P278">
+        <v>23</v>
       </c>
       <c r="Q278">
         <v>2029</v>
@@ -25017,7 +24903,7 @@
         <v>4</v>
       </c>
       <c r="Z278" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="279" spans="1:26">
@@ -25066,8 +24952,8 @@
       <c r="O279">
         <v>2</v>
       </c>
-      <c r="P279" t="s">
-        <v>766</v>
+      <c r="P279">
+        <v>13</v>
       </c>
       <c r="Q279">
         <v>874</v>
@@ -25097,7 +24983,7 @@
         <v>4</v>
       </c>
       <c r="Z279" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="280" spans="1:26">
@@ -25146,8 +25032,8 @@
       <c r="O280">
         <v>4</v>
       </c>
-      <c r="P280" t="s">
-        <v>782</v>
+      <c r="P280">
+        <v>8</v>
       </c>
       <c r="Q280">
         <v>544</v>
@@ -25177,7 +25063,7 @@
         <v>4</v>
       </c>
       <c r="Z280" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="281" spans="1:26">
@@ -25226,8 +25112,8 @@
       <c r="O281">
         <v>2</v>
       </c>
-      <c r="P281" t="s">
-        <v>780</v>
+      <c r="P281">
+        <v>20</v>
       </c>
       <c r="Q281">
         <v>779</v>
@@ -25257,7 +25143,7 @@
         <v>2</v>
       </c>
       <c r="Z281" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
     </row>
     <row r="282" spans="1:26">
@@ -25306,8 +25192,8 @@
       <c r="O282">
         <v>2</v>
       </c>
-      <c r="P282" t="s">
-        <v>766</v>
+      <c r="P282">
+        <v>13</v>
       </c>
       <c r="Q282">
         <v>961</v>
@@ -25337,7 +25223,7 @@
         <v>2</v>
       </c>
       <c r="Z282" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="283" spans="1:26">
@@ -25386,8 +25272,8 @@
       <c r="O283">
         <v>0</v>
       </c>
-      <c r="P283" t="s">
-        <v>787</v>
+      <c r="P283">
+        <v>22</v>
       </c>
       <c r="Q283">
         <v>562</v>
@@ -25417,7 +25303,7 @@
         <v>0</v>
       </c>
       <c r="Z283" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="284" spans="1:26">
@@ -25466,8 +25352,8 @@
       <c r="O284">
         <v>2</v>
       </c>
-      <c r="P284" t="s">
-        <v>774</v>
+      <c r="P284">
+        <v>15</v>
       </c>
       <c r="Q284">
         <v>840</v>
@@ -25497,7 +25383,7 @@
         <v>2</v>
       </c>
       <c r="Z284" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="285" spans="1:26">
@@ -25546,8 +25432,8 @@
       <c r="O285">
         <v>0</v>
       </c>
-      <c r="P285" t="s">
-        <v>766</v>
+      <c r="P285">
+        <v>13</v>
       </c>
       <c r="Q285">
         <v>844</v>
@@ -25577,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="Z285" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="286" spans="1:26">
@@ -25626,8 +25512,8 @@
       <c r="O286">
         <v>0</v>
       </c>
-      <c r="P286" t="s">
-        <v>795</v>
+      <c r="P286">
+        <v>16</v>
       </c>
       <c r="Q286">
         <v>899</v>
@@ -25657,7 +25543,7 @@
         <v>2</v>
       </c>
       <c r="Z286" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="287" spans="1:26">
@@ -25706,8 +25592,8 @@
       <c r="O287">
         <v>2</v>
       </c>
-      <c r="P287" t="s">
-        <v>782</v>
+      <c r="P287">
+        <v>8</v>
       </c>
       <c r="Q287">
         <v>330</v>
@@ -25737,7 +25623,7 @@
         <v>2</v>
       </c>
       <c r="Z287" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="288" spans="1:26">
@@ -25786,8 +25672,8 @@
       <c r="O288">
         <v>0</v>
       </c>
-      <c r="P288" t="s">
-        <v>792</v>
+      <c r="P288">
+        <v>9</v>
       </c>
       <c r="Q288">
         <v>212</v>
@@ -25817,7 +25703,7 @@
         <v>0</v>
       </c>
       <c r="Z288" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="289" spans="1:26">
@@ -25866,8 +25752,8 @@
       <c r="O289">
         <v>0</v>
       </c>
-      <c r="P289" t="s">
-        <v>792</v>
+      <c r="P289">
+        <v>9</v>
       </c>
       <c r="Q289">
         <v>401</v>
@@ -25897,7 +25783,7 @@
         <v>0</v>
       </c>
       <c r="Z289" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="290" spans="1:26">
@@ -25946,8 +25832,8 @@
       <c r="O290">
         <v>0</v>
       </c>
-      <c r="P290" t="s">
-        <v>770</v>
+      <c r="P290">
+        <v>6</v>
       </c>
       <c r="Q290">
         <v>344</v>
@@ -25977,7 +25863,7 @@
         <v>2</v>
       </c>
       <c r="Z290" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="291" spans="1:26">
@@ -26026,8 +25912,8 @@
       <c r="O291">
         <v>0</v>
       </c>
-      <c r="P291" t="s">
-        <v>790</v>
+      <c r="P291">
+        <v>4</v>
       </c>
       <c r="Q291">
         <v>121</v>
@@ -26057,7 +25943,7 @@
         <v>1</v>
       </c>
       <c r="Z291" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="292" spans="1:26">
@@ -26106,8 +25992,8 @@
       <c r="O292">
         <v>0</v>
       </c>
-      <c r="P292" t="s">
-        <v>770</v>
+      <c r="P292">
+        <v>6</v>
       </c>
       <c r="Q292">
         <v>284</v>
@@ -26137,7 +26023,7 @@
         <v>1</v>
       </c>
       <c r="Z292" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="293" spans="1:26">
@@ -26186,8 +26072,8 @@
       <c r="O293">
         <v>0</v>
       </c>
-      <c r="P293" t="s">
-        <v>765</v>
+      <c r="P293">
+        <v>7</v>
       </c>
       <c r="Q293">
         <v>303</v>
@@ -26217,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="Z293" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="294" spans="1:26">
@@ -26266,8 +26152,8 @@
       <c r="O294">
         <v>0</v>
       </c>
-      <c r="P294" t="s">
-        <v>770</v>
+      <c r="P294">
+        <v>6</v>
       </c>
       <c r="Q294">
         <v>126</v>
@@ -26297,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="Z294" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="295" spans="1:26">
@@ -26346,8 +26232,8 @@
       <c r="O295">
         <v>0</v>
       </c>
-      <c r="P295" t="s">
-        <v>788</v>
+      <c r="P295">
+        <v>2</v>
       </c>
       <c r="Q295">
         <v>146</v>
@@ -26377,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="Z295" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="296" spans="1:26">
@@ -26426,8 +26312,8 @@
       <c r="O296">
         <v>0</v>
       </c>
-      <c r="P296" t="s">
-        <v>763</v>
+      <c r="P296">
+        <v>1</v>
       </c>
       <c r="Q296">
         <v>11</v>
@@ -26457,7 +26343,7 @@
         <v>0</v>
       </c>
       <c r="Z296" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="297" spans="1:26">
@@ -26506,8 +26392,8 @@
       <c r="O297">
         <v>0</v>
       </c>
-      <c r="P297" t="s">
-        <v>788</v>
+      <c r="P297">
+        <v>2</v>
       </c>
       <c r="Q297">
         <v>7</v>
@@ -26537,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="Z297" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="298" spans="1:26">
@@ -26586,8 +26472,8 @@
       <c r="O298">
         <v>8</v>
       </c>
-      <c r="P298" t="s">
-        <v>785</v>
+      <c r="P298">
+        <v>31</v>
       </c>
       <c r="Q298">
         <v>2295</v>
@@ -26617,7 +26503,7 @@
         <v>9</v>
       </c>
       <c r="Z298" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="299" spans="1:26">
@@ -26666,8 +26552,8 @@
       <c r="O299">
         <v>7</v>
       </c>
-      <c r="P299" t="s">
-        <v>760</v>
+      <c r="P299">
+        <v>32</v>
       </c>
       <c r="Q299">
         <v>2694</v>
@@ -26697,7 +26583,7 @@
         <v>7</v>
       </c>
       <c r="Z299" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="300" spans="1:26">
@@ -26746,8 +26632,8 @@
       <c r="O300">
         <v>6</v>
       </c>
-      <c r="P300" t="s">
-        <v>772</v>
+      <c r="P300">
+        <v>30</v>
       </c>
       <c r="Q300">
         <v>2039</v>
@@ -26777,7 +26663,7 @@
         <v>8</v>
       </c>
       <c r="Z300" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="301" spans="1:26">
@@ -26826,8 +26712,8 @@
       <c r="O301">
         <v>6</v>
       </c>
-      <c r="P301" t="s">
-        <v>761</v>
+      <c r="P301">
+        <v>36</v>
       </c>
       <c r="Q301">
         <v>2890</v>
@@ -26857,7 +26743,7 @@
         <v>7</v>
       </c>
       <c r="Z301" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="302" spans="1:26">
@@ -26906,8 +26792,8 @@
       <c r="O302">
         <v>5</v>
       </c>
-      <c r="P302" t="s">
-        <v>777</v>
+      <c r="P302">
+        <v>24</v>
       </c>
       <c r="Q302">
         <v>1995</v>
@@ -26937,7 +26823,7 @@
         <v>8</v>
       </c>
       <c r="Z302" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="303" spans="1:26">
@@ -26986,8 +26872,8 @@
       <c r="O303">
         <v>6</v>
       </c>
-      <c r="P303" t="s">
-        <v>772</v>
+      <c r="P303">
+        <v>30</v>
       </c>
       <c r="Q303">
         <v>2656</v>
@@ -27017,7 +26903,7 @@
         <v>7</v>
       </c>
       <c r="Z303" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="304" spans="1:26">
@@ -27066,8 +26952,8 @@
       <c r="O304">
         <v>6</v>
       </c>
-      <c r="P304" t="s">
-        <v>791</v>
+      <c r="P304">
+        <v>27</v>
       </c>
       <c r="Q304">
         <v>1827</v>
@@ -27097,7 +26983,7 @@
         <v>4</v>
       </c>
       <c r="Z304" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="305" spans="1:26">
@@ -27146,8 +27032,8 @@
       <c r="O305">
         <v>6</v>
       </c>
-      <c r="P305" t="s">
-        <v>758</v>
+      <c r="P305">
+        <v>28</v>
       </c>
       <c r="Q305">
         <v>2029</v>
@@ -27177,7 +27063,7 @@
         <v>6</v>
       </c>
       <c r="Z305" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="306" spans="1:26">
@@ -27226,8 +27112,8 @@
       <c r="O306">
         <v>4</v>
       </c>
-      <c r="P306" t="s">
-        <v>789</v>
+      <c r="P306">
+        <v>23</v>
       </c>
       <c r="Q306">
         <v>1169</v>
@@ -27257,7 +27143,7 @@
         <v>8</v>
       </c>
       <c r="Z306" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="307" spans="1:26">
@@ -27306,8 +27192,8 @@
       <c r="O307">
         <v>6</v>
       </c>
-      <c r="P307" t="s">
-        <v>777</v>
+      <c r="P307">
+        <v>24</v>
       </c>
       <c r="Q307">
         <v>1981</v>
@@ -27337,7 +27223,7 @@
         <v>6</v>
       </c>
       <c r="Z307" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="308" spans="1:26">
@@ -27386,8 +27272,8 @@
       <c r="O308">
         <v>2</v>
       </c>
-      <c r="P308" t="s">
-        <v>775</v>
+      <c r="P308">
+        <v>25</v>
       </c>
       <c r="Q308">
         <v>2133</v>
@@ -27417,7 +27303,7 @@
         <v>5</v>
       </c>
       <c r="Z308" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="309" spans="1:26">
@@ -27466,8 +27352,8 @@
       <c r="O309">
         <v>0</v>
       </c>
-      <c r="P309" t="s">
-        <v>785</v>
+      <c r="P309">
+        <v>31</v>
       </c>
       <c r="Q309">
         <v>1733</v>
@@ -27497,7 +27383,7 @@
         <v>7</v>
       </c>
       <c r="Z309" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="310" spans="1:26">
@@ -27546,8 +27432,8 @@
       <c r="O310">
         <v>4</v>
       </c>
-      <c r="P310" t="s">
-        <v>779</v>
+      <c r="P310">
+        <v>33</v>
       </c>
       <c r="Q310">
         <v>2071</v>
@@ -27577,7 +27463,7 @@
         <v>1</v>
       </c>
       <c r="Z310" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="311" spans="1:26">
@@ -27626,8 +27512,8 @@
       <c r="O311">
         <v>6</v>
       </c>
-      <c r="P311" t="s">
-        <v>787</v>
+      <c r="P311">
+        <v>22</v>
       </c>
       <c r="Q311">
         <v>1429</v>
@@ -27657,7 +27543,7 @@
         <v>4</v>
       </c>
       <c r="Z311" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="312" spans="1:26">
@@ -27706,8 +27592,8 @@
       <c r="O312">
         <v>0</v>
       </c>
-      <c r="P312" t="s">
-        <v>758</v>
+      <c r="P312">
+        <v>28</v>
       </c>
       <c r="Q312">
         <v>1694</v>
@@ -27737,7 +27623,7 @@
         <v>5</v>
       </c>
       <c r="Z312" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="313" spans="1:26">
@@ -27786,8 +27672,8 @@
       <c r="O313">
         <v>2</v>
       </c>
-      <c r="P313" t="s">
-        <v>758</v>
+      <c r="P313">
+        <v>28</v>
       </c>
       <c r="Q313">
         <v>2181</v>
@@ -27817,7 +27703,7 @@
         <v>6</v>
       </c>
       <c r="Z313" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="314" spans="1:26">
@@ -27866,8 +27752,8 @@
       <c r="O314">
         <v>3</v>
       </c>
-      <c r="P314" t="s">
-        <v>780</v>
+      <c r="P314">
+        <v>20</v>
       </c>
       <c r="Q314">
         <v>1636</v>
@@ -27897,7 +27783,7 @@
         <v>6</v>
       </c>
       <c r="Z314" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="315" spans="1:26">
@@ -27946,8 +27832,8 @@
       <c r="O315">
         <v>3</v>
       </c>
-      <c r="P315" t="s">
-        <v>775</v>
+      <c r="P315">
+        <v>25</v>
       </c>
       <c r="Q315">
         <v>1465</v>
@@ -27977,7 +27863,7 @@
         <v>3</v>
       </c>
       <c r="Z315" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="316" spans="1:26">
@@ -28026,8 +27912,8 @@
       <c r="O316">
         <v>2</v>
       </c>
-      <c r="P316" t="s">
-        <v>785</v>
+      <c r="P316">
+        <v>31</v>
       </c>
       <c r="Q316">
         <v>1590</v>
@@ -28057,7 +27943,7 @@
         <v>3</v>
       </c>
       <c r="Z316" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="317" spans="1:26">
@@ -28106,8 +27992,8 @@
       <c r="O317">
         <v>5</v>
       </c>
-      <c r="P317" t="s">
-        <v>781</v>
+      <c r="P317">
+        <v>21</v>
       </c>
       <c r="Q317">
         <v>1434</v>
@@ -28137,7 +28023,7 @@
         <v>5</v>
       </c>
       <c r="Z317" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="318" spans="1:26">
@@ -28186,8 +28072,8 @@
       <c r="O318">
         <v>1</v>
       </c>
-      <c r="P318" t="s">
-        <v>777</v>
+      <c r="P318">
+        <v>24</v>
       </c>
       <c r="Q318">
         <v>1384</v>
@@ -28217,7 +28103,7 @@
         <v>5</v>
       </c>
       <c r="Z318" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="319" spans="1:26">
@@ -28266,8 +28152,8 @@
       <c r="O319">
         <v>1</v>
       </c>
-      <c r="P319" t="s">
-        <v>787</v>
+      <c r="P319">
+        <v>22</v>
       </c>
       <c r="Q319">
         <v>1911</v>
@@ -28297,7 +28183,7 @@
         <v>5</v>
       </c>
       <c r="Z319" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="320" spans="1:26">
@@ -28346,8 +28232,8 @@
       <c r="O320">
         <v>2</v>
       </c>
-      <c r="P320" t="s">
-        <v>787</v>
+      <c r="P320">
+        <v>22</v>
       </c>
       <c r="Q320">
         <v>1169</v>
@@ -28377,7 +28263,7 @@
         <v>3</v>
       </c>
       <c r="Z320" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="321" spans="1:26">
@@ -28426,8 +28312,8 @@
       <c r="O321">
         <v>1</v>
       </c>
-      <c r="P321" t="s">
-        <v>774</v>
+      <c r="P321">
+        <v>15</v>
       </c>
       <c r="Q321">
         <v>958</v>
@@ -28457,7 +28343,7 @@
         <v>6</v>
       </c>
       <c r="Z321" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="322" spans="1:26">
@@ -28506,8 +28392,8 @@
       <c r="O322">
         <v>1</v>
       </c>
-      <c r="P322" t="s">
-        <v>780</v>
+      <c r="P322">
+        <v>20</v>
       </c>
       <c r="Q322">
         <v>1397</v>
@@ -28537,7 +28423,7 @@
         <v>3</v>
       </c>
       <c r="Z322" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="323" spans="1:26">
@@ -28586,8 +28472,8 @@
       <c r="O323">
         <v>0</v>
       </c>
-      <c r="P323" t="s">
-        <v>777</v>
+      <c r="P323">
+        <v>24</v>
       </c>
       <c r="Q323">
         <v>1559</v>
@@ -28617,7 +28503,7 @@
         <v>6</v>
       </c>
       <c r="Z323" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="324" spans="1:26">
@@ -28666,8 +28552,8 @@
       <c r="O324">
         <v>4</v>
       </c>
-      <c r="P324" t="s">
-        <v>781</v>
+      <c r="P324">
+        <v>21</v>
       </c>
       <c r="Q324">
         <v>1232</v>
@@ -28697,7 +28583,7 @@
         <v>1</v>
       </c>
       <c r="Z324" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="325" spans="1:26">
@@ -28746,8 +28632,8 @@
       <c r="O325">
         <v>2</v>
       </c>
-      <c r="P325" t="s">
-        <v>773</v>
+      <c r="P325">
+        <v>17</v>
       </c>
       <c r="Q325">
         <v>1127</v>
@@ -28777,7 +28663,7 @@
         <v>2</v>
       </c>
       <c r="Z325" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="326" spans="1:26">
@@ -28826,8 +28712,8 @@
       <c r="O326">
         <v>6</v>
       </c>
-      <c r="P326" t="s">
-        <v>784</v>
+      <c r="P326">
+        <v>11</v>
       </c>
       <c r="Q326">
         <v>921</v>
@@ -28857,7 +28743,7 @@
         <v>3</v>
       </c>
       <c r="Z326" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="327" spans="1:26">
@@ -28906,8 +28792,8 @@
       <c r="O327">
         <v>0</v>
       </c>
-      <c r="P327" t="s">
-        <v>769</v>
+      <c r="P327">
+        <v>19</v>
       </c>
       <c r="Q327">
         <v>1258</v>
@@ -28937,7 +28823,7 @@
         <v>1</v>
       </c>
       <c r="Z327" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="328" spans="1:26">
@@ -28986,8 +28872,8 @@
       <c r="O328">
         <v>1</v>
       </c>
-      <c r="P328" t="s">
-        <v>780</v>
+      <c r="P328">
+        <v>20</v>
       </c>
       <c r="Q328">
         <v>1621</v>
@@ -29017,7 +28903,7 @@
         <v>3</v>
       </c>
       <c r="Z328" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="329" spans="1:26">
@@ -29066,8 +28952,8 @@
       <c r="O329">
         <v>2</v>
       </c>
-      <c r="P329" t="s">
-        <v>786</v>
+      <c r="P329">
+        <v>14</v>
       </c>
       <c r="Q329">
         <v>438</v>
@@ -29097,7 +28983,7 @@
         <v>1</v>
       </c>
       <c r="Z329" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="330" spans="1:26">
@@ -29146,8 +29032,8 @@
       <c r="O330">
         <v>0</v>
       </c>
-      <c r="P330" t="s">
-        <v>771</v>
+      <c r="P330">
+        <v>29</v>
       </c>
       <c r="Q330">
         <v>2050</v>
@@ -29177,7 +29063,7 @@
         <v>1</v>
       </c>
       <c r="Z330" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="331" spans="1:26">
@@ -29226,8 +29112,8 @@
       <c r="O331">
         <v>3</v>
       </c>
-      <c r="P331" t="s">
-        <v>766</v>
+      <c r="P331">
+        <v>13</v>
       </c>
       <c r="Q331">
         <v>645</v>
@@ -29257,7 +29143,7 @@
         <v>1</v>
       </c>
       <c r="Z331" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="332" spans="1:26">
@@ -29306,8 +29192,8 @@
       <c r="O332">
         <v>1</v>
       </c>
-      <c r="P332" t="s">
-        <v>782</v>
+      <c r="P332">
+        <v>8</v>
       </c>
       <c r="Q332">
         <v>660</v>
@@ -29337,7 +29223,7 @@
         <v>4</v>
       </c>
       <c r="Z332" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="333" spans="1:26">
@@ -29386,8 +29272,8 @@
       <c r="O333">
         <v>0</v>
       </c>
-      <c r="P333" t="s">
-        <v>780</v>
+      <c r="P333">
+        <v>20</v>
       </c>
       <c r="Q333">
         <v>1572</v>
@@ -29417,7 +29303,7 @@
         <v>1</v>
       </c>
       <c r="Z333" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="334" spans="1:26">
@@ -29466,8 +29352,8 @@
       <c r="O334">
         <v>1</v>
       </c>
-      <c r="P334" t="s">
-        <v>784</v>
+      <c r="P334">
+        <v>11</v>
       </c>
       <c r="Q334">
         <v>392</v>
@@ -29497,7 +29383,7 @@
         <v>1</v>
       </c>
       <c r="Z334" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="335" spans="1:26">
@@ -29546,8 +29432,8 @@
       <c r="O335">
         <v>1</v>
       </c>
-      <c r="P335" t="s">
-        <v>784</v>
+      <c r="P335">
+        <v>11</v>
       </c>
       <c r="Q335">
         <v>833</v>
@@ -29577,7 +29463,7 @@
         <v>2</v>
       </c>
       <c r="Z335" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="336" spans="1:26">
@@ -29626,8 +29512,8 @@
       <c r="O336">
         <v>3</v>
       </c>
-      <c r="P336" t="s">
-        <v>765</v>
+      <c r="P336">
+        <v>7</v>
       </c>
       <c r="Q336">
         <v>397</v>
@@ -29657,7 +29543,7 @@
         <v>1</v>
       </c>
       <c r="Z336" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="337" spans="1:26">
@@ -29706,8 +29592,8 @@
       <c r="O337">
         <v>0</v>
       </c>
-      <c r="P337" t="s">
-        <v>778</v>
+      <c r="P337">
+        <v>18</v>
       </c>
       <c r="Q337">
         <v>1333</v>
@@ -29737,7 +29623,7 @@
         <v>0</v>
       </c>
       <c r="Z337" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="338" spans="1:26">
@@ -29786,8 +29672,8 @@
       <c r="O338">
         <v>1</v>
       </c>
-      <c r="P338" t="s">
-        <v>774</v>
+      <c r="P338">
+        <v>15</v>
       </c>
       <c r="Q338">
         <v>906</v>
@@ -29817,7 +29703,7 @@
         <v>1</v>
       </c>
       <c r="Z338" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="339" spans="1:26">
@@ -29866,8 +29752,8 @@
       <c r="O339">
         <v>1</v>
       </c>
-      <c r="P339" t="s">
-        <v>770</v>
+      <c r="P339">
+        <v>6</v>
       </c>
       <c r="Q339">
         <v>174</v>
@@ -29897,7 +29783,7 @@
         <v>1</v>
       </c>
       <c r="Z339" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="340" spans="1:26">
@@ -29946,8 +29832,8 @@
       <c r="O340">
         <v>0</v>
       </c>
-      <c r="P340" t="s">
-        <v>782</v>
+      <c r="P340">
+        <v>8</v>
       </c>
       <c r="Q340">
         <v>263</v>
@@ -29977,7 +29863,7 @@
         <v>2</v>
       </c>
       <c r="Z340" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="341" spans="1:26">
@@ -30026,8 +29912,8 @@
       <c r="O341">
         <v>0</v>
       </c>
-      <c r="P341" t="s">
-        <v>770</v>
+      <c r="P341">
+        <v>6</v>
       </c>
       <c r="Q341">
         <v>230</v>
@@ -30057,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="Z341" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="342" spans="1:26">
@@ -30106,8 +29992,8 @@
       <c r="O342">
         <v>0</v>
       </c>
-      <c r="P342" t="s">
-        <v>792</v>
+      <c r="P342">
+        <v>9</v>
       </c>
       <c r="Q342">
         <v>376</v>
@@ -30137,7 +30023,7 @@
         <v>0</v>
       </c>
       <c r="Z342" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="343" spans="1:26">
@@ -30186,8 +30072,8 @@
       <c r="O343">
         <v>0</v>
       </c>
-      <c r="P343" t="s">
-        <v>784</v>
+      <c r="P343">
+        <v>11</v>
       </c>
       <c r="Q343">
         <v>810</v>
@@ -30217,7 +30103,7 @@
         <v>1</v>
       </c>
       <c r="Z343" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="344" spans="1:26">
@@ -30266,8 +30152,8 @@
       <c r="O344">
         <v>0</v>
       </c>
-      <c r="P344" t="s">
-        <v>765</v>
+      <c r="P344">
+        <v>7</v>
       </c>
       <c r="Q344">
         <v>521</v>
@@ -30297,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="Z344" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="345" spans="1:26">
@@ -30346,8 +30232,8 @@
       <c r="O345">
         <v>0</v>
       </c>
-      <c r="P345" t="s">
-        <v>793</v>
+      <c r="P345">
+        <v>5</v>
       </c>
       <c r="Q345">
         <v>261</v>
@@ -30377,7 +30263,7 @@
         <v>1</v>
       </c>
       <c r="Z345" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="346" spans="1:26">
@@ -30426,8 +30312,8 @@
       <c r="O346">
         <v>1</v>
       </c>
-      <c r="P346" t="s">
-        <v>770</v>
+      <c r="P346">
+        <v>6</v>
       </c>
       <c r="Q346">
         <v>387</v>
@@ -30457,7 +30343,7 @@
         <v>0</v>
       </c>
       <c r="Z346" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="347" spans="1:26">
@@ -30506,8 +30392,8 @@
       <c r="O347">
         <v>1</v>
       </c>
-      <c r="P347" t="s">
-        <v>763</v>
+      <c r="P347">
+        <v>1</v>
       </c>
       <c r="Q347">
         <v>90</v>
@@ -30537,7 +30423,7 @@
         <v>1</v>
       </c>
       <c r="Z347" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="348" spans="1:26">
@@ -30586,8 +30472,8 @@
       <c r="O348">
         <v>0</v>
       </c>
-      <c r="P348" t="s">
-        <v>793</v>
+      <c r="P348">
+        <v>5</v>
       </c>
       <c r="Q348">
         <v>44</v>
@@ -30617,7 +30503,7 @@
         <v>0</v>
       </c>
       <c r="Z348" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="349" spans="1:26">
@@ -30666,8 +30552,8 @@
       <c r="O349">
         <v>0</v>
       </c>
-      <c r="P349" t="s">
-        <v>790</v>
+      <c r="P349">
+        <v>4</v>
       </c>
       <c r="Q349">
         <v>132</v>
@@ -30697,7 +30583,7 @@
         <v>0</v>
       </c>
       <c r="Z349" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="350" spans="1:26">
@@ -30746,8 +30632,8 @@
       <c r="O350">
         <v>0</v>
       </c>
-      <c r="P350" t="s">
-        <v>783</v>
+      <c r="P350">
+        <v>3</v>
       </c>
       <c r="Q350">
         <v>116</v>
@@ -30777,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="Z350" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="351" spans="1:26">
@@ -30826,8 +30712,8 @@
       <c r="O351">
         <v>0</v>
       </c>
-      <c r="P351" t="s">
-        <v>788</v>
+      <c r="P351">
+        <v>2</v>
       </c>
       <c r="Q351">
         <v>79</v>
@@ -30857,7 +30743,7 @@
         <v>1</v>
       </c>
       <c r="Z351" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="352" spans="1:26">
@@ -30906,8 +30792,8 @@
       <c r="O352">
         <v>0</v>
       </c>
-      <c r="P352" t="s">
-        <v>783</v>
+      <c r="P352">
+        <v>3</v>
       </c>
       <c r="Q352">
         <v>145</v>
@@ -30937,7 +30823,7 @@
         <v>0</v>
       </c>
       <c r="Z352" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="353" spans="1:26">
@@ -30986,8 +30872,8 @@
       <c r="O353">
         <v>0</v>
       </c>
-      <c r="P353" t="s">
-        <v>788</v>
+      <c r="P353">
+        <v>2</v>
       </c>
       <c r="Q353">
         <v>180</v>
@@ -31017,7 +30903,7 @@
         <v>0</v>
       </c>
       <c r="Z353" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="354" spans="1:26">
@@ -31066,8 +30952,8 @@
       <c r="O354">
         <v>9</v>
       </c>
-      <c r="P354" t="s">
-        <v>775</v>
+      <c r="P354">
+        <v>25</v>
       </c>
       <c r="Q354">
         <v>2131</v>
@@ -31097,7 +30983,7 @@
         <v>9</v>
       </c>
       <c r="Z354" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="355" spans="1:26">
@@ -31146,8 +31032,8 @@
       <c r="O355">
         <v>2</v>
       </c>
-      <c r="P355" t="s">
-        <v>767</v>
+      <c r="P355">
+        <v>34</v>
       </c>
       <c r="Q355">
         <v>2489</v>
@@ -31177,7 +31063,7 @@
         <v>5</v>
       </c>
       <c r="Z355" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
     </row>
     <row r="356" spans="1:26">
@@ -31226,8 +31112,8 @@
       <c r="O356">
         <v>5</v>
       </c>
-      <c r="P356" t="s">
-        <v>785</v>
+      <c r="P356">
+        <v>31</v>
       </c>
       <c r="Q356">
         <v>2077</v>
@@ -31257,7 +31143,7 @@
         <v>8</v>
       </c>
       <c r="Z356" t="s">
-        <v>800</v>
+        <v>762</v>
       </c>
     </row>
     <row r="357" spans="1:26">
@@ -31306,8 +31192,8 @@
       <c r="O357">
         <v>6</v>
       </c>
-      <c r="P357" t="s">
-        <v>767</v>
+      <c r="P357">
+        <v>34</v>
       </c>
       <c r="Q357">
         <v>2920</v>
@@ -31337,7 +31223,7 @@
         <v>5</v>
       </c>
       <c r="Z357" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="358" spans="1:26">
@@ -31386,8 +31272,8 @@
       <c r="O358">
         <v>7</v>
       </c>
-      <c r="P358" t="s">
-        <v>758</v>
+      <c r="P358">
+        <v>28</v>
       </c>
       <c r="Q358">
         <v>2200</v>
@@ -31417,7 +31303,7 @@
         <v>7</v>
       </c>
       <c r="Z358" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="359" spans="1:26">
@@ -31466,8 +31352,8 @@
       <c r="O359">
         <v>8</v>
       </c>
-      <c r="P359" t="s">
-        <v>781</v>
+      <c r="P359">
+        <v>21</v>
       </c>
       <c r="Q359">
         <v>1452</v>
@@ -31497,7 +31383,7 @@
         <v>3</v>
       </c>
       <c r="Z359" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="360" spans="1:26">
@@ -31546,8 +31432,8 @@
       <c r="O360">
         <v>8</v>
       </c>
-      <c r="P360" t="s">
-        <v>762</v>
+      <c r="P360">
+        <v>26</v>
       </c>
       <c r="Q360">
         <v>2272</v>
@@ -31577,7 +31463,7 @@
         <v>2</v>
       </c>
       <c r="Z360" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="361" spans="1:26">
@@ -31626,8 +31512,8 @@
       <c r="O361">
         <v>3</v>
       </c>
-      <c r="P361" t="s">
-        <v>775</v>
+      <c r="P361">
+        <v>25</v>
       </c>
       <c r="Q361">
         <v>548</v>
@@ -31657,7 +31543,7 @@
         <v>3</v>
       </c>
       <c r="Z361" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="362" spans="1:26">
@@ -31706,8 +31592,8 @@
       <c r="O362">
         <v>2</v>
       </c>
-      <c r="P362" t="s">
-        <v>773</v>
+      <c r="P362">
+        <v>17</v>
       </c>
       <c r="Q362">
         <v>777</v>
@@ -31737,7 +31623,7 @@
         <v>3</v>
       </c>
       <c r="Z362" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="363" spans="1:26">
@@ -31786,8 +31672,8 @@
       <c r="O363">
         <v>3</v>
       </c>
-      <c r="P363" t="s">
-        <v>774</v>
+      <c r="P363">
+        <v>15</v>
       </c>
       <c r="Q363">
         <v>849</v>
@@ -31817,7 +31703,7 @@
         <v>4</v>
       </c>
       <c r="Z363" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="364" spans="1:26">
@@ -31866,8 +31752,8 @@
       <c r="O364">
         <v>0</v>
       </c>
-      <c r="P364" t="s">
-        <v>780</v>
+      <c r="P364">
+        <v>20</v>
       </c>
       <c r="Q364">
         <v>1040</v>
@@ -31897,7 +31783,7 @@
         <v>3</v>
       </c>
       <c r="Z364" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="365" spans="1:26">
@@ -31946,8 +31832,8 @@
       <c r="O365">
         <v>2</v>
       </c>
-      <c r="P365" t="s">
-        <v>795</v>
+      <c r="P365">
+        <v>16</v>
       </c>
       <c r="Q365">
         <v>1050</v>
@@ -31977,7 +31863,7 @@
         <v>4</v>
       </c>
       <c r="Z365" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="366" spans="1:26">
@@ -32026,8 +31912,8 @@
       <c r="O366">
         <v>1</v>
       </c>
-      <c r="P366" t="s">
-        <v>789</v>
+      <c r="P366">
+        <v>23</v>
       </c>
       <c r="Q366">
         <v>976</v>
@@ -32057,7 +31943,7 @@
         <v>1</v>
       </c>
       <c r="Z366" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="367" spans="1:26">
@@ -32106,8 +31992,8 @@
       <c r="O367">
         <v>0</v>
       </c>
-      <c r="P367" t="s">
-        <v>773</v>
+      <c r="P367">
+        <v>17</v>
       </c>
       <c r="Q367">
         <v>524</v>
@@ -32137,7 +32023,7 @@
         <v>1</v>
       </c>
       <c r="Z367" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="368" spans="1:26">
@@ -32186,8 +32072,8 @@
       <c r="O368">
         <v>0</v>
       </c>
-      <c r="P368" t="s">
-        <v>769</v>
+      <c r="P368">
+        <v>19</v>
       </c>
       <c r="Q368">
         <v>549</v>
@@ -32217,7 +32103,7 @@
         <v>1</v>
       </c>
       <c r="Z368" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="369" spans="1:26">
@@ -32266,8 +32152,8 @@
       <c r="O369">
         <v>0</v>
       </c>
-      <c r="P369" t="s">
-        <v>786</v>
+      <c r="P369">
+        <v>14</v>
       </c>
       <c r="Q369">
         <v>802</v>
@@ -32297,7 +32183,7 @@
         <v>1</v>
       </c>
       <c r="Z369" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="370" spans="1:26">
@@ -32346,8 +32232,8 @@
       <c r="O370">
         <v>4</v>
       </c>
-      <c r="P370" t="s">
-        <v>777</v>
+      <c r="P370">
+        <v>24</v>
       </c>
       <c r="Q370">
         <v>1709</v>
@@ -32377,7 +32263,7 @@
         <v>1</v>
       </c>
       <c r="Z370" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="371" spans="1:26">
@@ -32426,8 +32312,8 @@
       <c r="O371">
         <v>2</v>
       </c>
-      <c r="P371" t="s">
-        <v>782</v>
+      <c r="P371">
+        <v>8</v>
       </c>
       <c r="Q371">
         <v>203</v>
@@ -32457,7 +32343,7 @@
         <v>0</v>
       </c>
       <c r="Z371" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="372" spans="1:26">
@@ -32506,8 +32392,8 @@
       <c r="O372">
         <v>0</v>
       </c>
-      <c r="P372" t="s">
-        <v>786</v>
+      <c r="P372">
+        <v>14</v>
       </c>
       <c r="Q372">
         <v>704</v>
@@ -32537,7 +32423,7 @@
         <v>1</v>
       </c>
       <c r="Z372" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="373" spans="1:26">
@@ -32586,8 +32472,8 @@
       <c r="O373">
         <v>1</v>
       </c>
-      <c r="P373" t="s">
-        <v>766</v>
+      <c r="P373">
+        <v>13</v>
       </c>
       <c r="Q373">
         <v>1012</v>
@@ -32617,7 +32503,7 @@
         <v>0</v>
       </c>
       <c r="Z373" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="374" spans="1:26">
@@ -32666,8 +32552,8 @@
       <c r="O374">
         <v>0</v>
       </c>
-      <c r="P374" t="s">
-        <v>794</v>
+      <c r="P374">
+        <v>12</v>
       </c>
       <c r="Q374">
         <v>452</v>
@@ -32697,7 +32583,7 @@
         <v>1</v>
       </c>
       <c r="Z374" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="375" spans="1:26">
@@ -32746,8 +32632,8 @@
       <c r="O375">
         <v>0</v>
       </c>
-      <c r="P375" t="s">
-        <v>783</v>
+      <c r="P375">
+        <v>3</v>
       </c>
       <c r="Q375">
         <v>69</v>
@@ -32777,7 +32663,7 @@
         <v>0</v>
       </c>
       <c r="Z375" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="376" spans="1:26">
@@ -32826,8 +32712,8 @@
       <c r="O376">
         <v>0</v>
       </c>
-      <c r="P376" t="s">
-        <v>783</v>
+      <c r="P376">
+        <v>3</v>
       </c>
       <c r="Q376">
         <v>90</v>
@@ -32857,7 +32743,7 @@
         <v>1</v>
       </c>
       <c r="Z376" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="377" spans="1:26">
@@ -32906,8 +32792,8 @@
       <c r="O377">
         <v>0</v>
       </c>
-      <c r="P377" t="s">
-        <v>790</v>
+      <c r="P377">
+        <v>4</v>
       </c>
       <c r="Q377">
         <v>36</v>
@@ -32937,7 +32823,7 @@
         <v>0</v>
       </c>
       <c r="Z377" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="378" spans="1:26">
@@ -32986,8 +32872,8 @@
       <c r="O378">
         <v>0</v>
       </c>
-      <c r="P378" t="s">
-        <v>790</v>
+      <c r="P378">
+        <v>4</v>
       </c>
       <c r="Q378">
         <v>337</v>
@@ -33017,7 +32903,7 @@
         <v>0</v>
       </c>
       <c r="Z378" t="s">
-        <v>797</v>
+        <v>759</v>
       </c>
     </row>
     <row r="379" spans="1:26">
@@ -33066,8 +32952,8 @@
       <c r="O379">
         <v>0</v>
       </c>
-      <c r="P379" t="s">
-        <v>783</v>
+      <c r="P379">
+        <v>3</v>
       </c>
       <c r="Q379">
         <v>65</v>
@@ -33097,7 +32983,7 @@
         <v>0</v>
       </c>
       <c r="Z379" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="380" spans="1:26">
@@ -33146,8 +33032,8 @@
       <c r="O380">
         <v>0</v>
       </c>
-      <c r="P380" t="s">
-        <v>788</v>
+      <c r="P380">
+        <v>2</v>
       </c>
       <c r="Q380">
         <v>23</v>
@@ -33177,7 +33063,7 @@
         <v>0</v>
       </c>
       <c r="Z380" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
     <row r="381" spans="1:26">
@@ -33226,8 +33112,8 @@
       <c r="O381">
         <v>0</v>
       </c>
-      <c r="P381" t="s">
-        <v>788</v>
+      <c r="P381">
+        <v>2</v>
       </c>
       <c r="Q381">
         <v>18</v>
@@ -33257,7 +33143,7 @@
         <v>0</v>
       </c>
       <c r="Z381" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382" spans="1:26">
@@ -33306,8 +33192,8 @@
       <c r="O382">
         <v>0</v>
       </c>
-      <c r="P382" t="s">
-        <v>763</v>
+      <c r="P382">
+        <v>1</v>
       </c>
       <c r="Q382">
         <v>19</v>
@@ -33337,7 +33223,7 @@
         <v>0</v>
       </c>
       <c r="Z382" t="s">
-        <v>796</v>
+        <v>758</v>
       </c>
     </row>
     <row r="383" spans="1:26">
@@ -33386,8 +33272,8 @@
       <c r="O383">
         <v>0</v>
       </c>
-      <c r="P383" t="s">
-        <v>763</v>
+      <c r="P383">
+        <v>1</v>
       </c>
       <c r="Q383">
         <v>4</v>
@@ -33417,7 +33303,7 @@
         <v>0</v>
       </c>
       <c r="Z383" t="s">
-        <v>799</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
